--- a/Technology/Software/Alphabet.xlsx
+++ b/Technology/Software/Alphabet.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B9758E-DDE1-2345-A857-DC8858115787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF066DDA-477C-AC40-B41D-D1DEC871BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="184">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,20 +551,93 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Google Search &amp; other</t>
+  </si>
+  <si>
+    <t>YouTube ads</t>
+  </si>
+  <si>
+    <t>Google Network</t>
+  </si>
+  <si>
+    <t>Google other</t>
+  </si>
+  <si>
+    <t>Google Services total</t>
+  </si>
+  <si>
+    <t>Google Cloud</t>
+  </si>
+  <si>
+    <t>Other Bets</t>
+  </si>
+  <si>
+    <t>Hedging gains (losses)</t>
+  </si>
+  <si>
+    <t>Total revenues</t>
+  </si>
+  <si>
+    <t>Google Advertising Total</t>
+  </si>
+  <si>
+    <t>Revenue Breakdown</t>
+  </si>
+  <si>
+    <t>Google Search</t>
+  </si>
+  <si>
+    <t>YouTube Ads</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>% of Revenue</t>
+  </si>
+  <si>
+    <t>YoY</t>
+  </si>
+  <si>
+    <t>Google Search YoY</t>
+  </si>
+  <si>
+    <t>YouTube Ads YoY</t>
+  </si>
+  <si>
+    <t>Google Network YoY</t>
+  </si>
+  <si>
+    <t>Google Advertising YoY</t>
+  </si>
+  <si>
+    <t>Google Other YoY</t>
+  </si>
+  <si>
+    <t>Google Services YoY</t>
+  </si>
+  <si>
+    <t>Google Cloud YoY</t>
+  </si>
+  <si>
+    <t>Other Bets YoY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -680,8 +754,46 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +832,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1009,6 +1133,67 @@
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="18" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,7 +1315,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$3</c:f>
+              <c:f>Model!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1174,7 +1359,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$X$3</c:f>
+              <c:f>Model!$B$3:$X$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1261,7 +1446,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>Model!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1305,7 +1490,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$X$19</c:f>
+              <c:f>Model!$B$19:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1392,7 +1577,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>Model!$A$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1436,7 +1621,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$X$106</c:f>
+              <c:f>Model!$B$106:$X$106</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1716,7 +1901,1468 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14715520361164894"/>
+          <c:y val="0.13749948917605068"/>
+          <c:w val="0.74690563557697587"/>
+          <c:h val="0.82987668336998854"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="6"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EA89-5746-91E8-287F32024F25}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EA89-5746-91E8-287F32024F25}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-EA89-5746-91E8-287F32024F25}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EA89-5746-91E8-287F32024F25}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-EA89-5746-91E8-287F32024F25}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-EA89-5746-91E8-287F32024F25}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2067054522705126"/>
+                  <c:y val="-9.1379536154962568E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21023975056958605"/>
+                      <c:h val="0.21482340894749163"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-EA89-5746-91E8-287F32024F25}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16862104033145264"/>
+                  <c:y val="-0.14584951164110549"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.26560363999918385"/>
+                      <c:h val="0.1286885590648208"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-EA89-5746-91E8-287F32024F25}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1256537200563998"/>
+                  <c:y val="-7.5766004748202519E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27985554263328638"/>
+                      <c:h val="0.15706292784302239"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-EA89-5746-91E8-287F32024F25}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14424420296625137"/>
+                  <c:y val="0.10607240664748256"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EA89-5746-91E8-287F32024F25}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11176131120999902"/>
+                  <c:y val="0.14731558052067803"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{F1305C43-3135-D34F-9129-562C9EDB5035}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" sz="1000">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="bg1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{1022C13E-6011-E447-9E2C-2507F81597D0}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="1000" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="bg1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1000" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.16682908992503295"/>
+                      <c:h val="0.16278326120151163"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EA89-5746-91E8-287F32024F25}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.5766004748201825E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="700" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-EA89-5746-91E8-287F32024F25}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$23:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Google Search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube Ads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Network</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google Cloud</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other Bets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.57436111386103605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10339207173061421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11589755193822568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10272737558160913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2916036148156522E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7760398251990555E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA89-5746-91E8-287F32024F25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1"/>
+              <a:t>Growth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+              <a:t> rates over time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Analysis!$A$3,Analysis!$A$5,Analysis!$A$7,Analysis!$A$11,Analysis!$A$15,Analysis!$A$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Google Search YoY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube Ads YoY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Network YoY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google Other YoY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google Cloud YoY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other Bets YoY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Analysis!$C$3,Analysis!$C$5,Analysis!$C$7,Analysis!$C$11,Analysis!$C$15,Analysis!$C$17)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15028840742824978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35804571940833707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6811594202898625E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20984142786034266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52757793764988015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1075630252100841</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A58-5448-A3AE-799E6F81AFEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Analysis!$A$3,Analysis!$A$5,Analysis!$A$7,Analysis!$A$11,Analysis!$A$15,Analysis!$A$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Google Search YoY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube Ads YoY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Network YoY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google Other YoY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google Cloud YoY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other Bets YoY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Analysis!$D$3,Analysis!$D$5,Analysis!$D$7,Analysis!$D$11,Analysis!$D$15,Analysis!$D$17)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0612546501554343E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30516865799722748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.161089710864621E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27606676854355228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46434178066831122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0349013657056112E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A58-5448-A3AE-799E6F81AFEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Analysis!$A$3,Analysis!$A$5,Analysis!$A$7,Analysis!$A$11,Analysis!$A$15,Analysis!$A$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Google Search YoY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube Ads YoY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Network YoY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google Other YoY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google Cloud YoY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other Bets YoY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Analysis!$E$3,Analysis!$E$5,Analysis!$E$7,Analysis!$E$11,Analysis!$E$15,Analysis!$E$17)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.43136783840402826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45888124620675708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37293200519705505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29114273870388274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47070985527222597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14611872146118721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A58-5448-A3AE-799E6F81AFEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Analysis!$A$3,Analysis!$A$5,Analysis!$A$7,Analysis!$A$11,Analysis!$A$15,Analysis!$A$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Google Search YoY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube Ads YoY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Network YoY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google Other YoY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google Cloud YoY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other Bets YoY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Analysis!$F$3,Analysis!$F$5,Analysis!$F$7,Analysis!$F$11,Analysis!$F$15,Analysis!$F$17)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.0627118985438182E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3797885248743258E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4036781174095365E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6494006849315141E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36832239925023424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41832669322709171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A58-5448-A3AE-799E6F81AFEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2073516975"/>
+        <c:axId val="2073481951"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Analysis!$A$3,Analysis!$A$5,Analysis!$A$7,Analysis!$A$11,Analysis!$A$15,Analysis!$A$17)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>Google Search YoY</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>YouTube Ads YoY</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Google Network YoY</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Google Other YoY</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Google Cloud YoY</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Other Bets YoY</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Analysis!$B$3,Analysis!$B$5,Analysis!$B$7,Analysis!$B$11,Analysis!$B$15,Analysis!$B$17)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5A58-5448-A3AE-799E6F81AFEB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2073516975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073481951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2073481951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073516975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2225,6 +3871,1029 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2258,6 +4927,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>189254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DFDE28-3F38-35F0-26C8-347927855902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA545EF-8A26-963B-D4B7-64D4B2B37968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2371,54 +5117,51 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3p2&amp;q=XNAS%3aGOOG&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3rw&amp;q=XNAS%3aGOOGL&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>0</v>
-    <v>ALPHABET INC. (XNAS:GOOG)</v>
+    <v>ALPHABET INC. (XNAS:GOOGL)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
     <v>en-US</v>
-    <v>a1u3p2</v>
+    <v>a1u3rw</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>130.3075</v>
-    <v>83.45</v>
-    <v>1.0998000000000001</v>
-    <v>0.01</v>
-    <v>9.4430000000000002E-5</v>
-    <v>0.32</v>
-    <v>3.0209999999999998E-3</v>
+    <v>125.97</v>
+    <v>83.34</v>
+    <v>1.0939000000000001</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-5.6990000000000003E-4</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
-    <v>190234</v>
+    <v>190711</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>106.64</v>
+    <v>125.97</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.999824235936</v>
+    <v>45065.99996107578</v>
     <v>0</v>
-    <v>105.485</v>
-    <v>1352970000000</v>
+    <v>122.15</v>
+    <v>1561562000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>106.09</v>
-    <v>23.266300000000001</v>
-    <v>105.9</v>
-    <v>105.91</v>
-    <v>106.23</v>
-    <v>12807000000</v>
-    <v>GOOG</v>
-    <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>22379018</v>
-    <v>27825492</v>
+    <v>123.55</v>
+    <v>27.319800000000001</v>
+    <v>122.83</v>
+    <v>122.76</v>
+    <v>12697000000</v>
+    <v>GOOGL</v>
+    <v>ALPHABET INC. (XNAS:GOOGL)</v>
+    <v>78399</v>
+    <v>36019052</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2450,8 +5193,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2472,7 +5213,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2489,7 +5229,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2500,16 +5240,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2575,19 +5312,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2632,9 +5363,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2642,9 +5370,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3006,10 +5731,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB99" sqref="AB99"/>
+      <selection pane="bottomRight" activeCell="AA95" sqref="AA95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3271,19 +5996,19 @@
         <v>282836000000</v>
       </c>
       <c r="Y3" s="28">
-        <v>299400000000</v>
+        <v>299200000000</v>
       </c>
       <c r="Z3" s="28">
-        <v>336100000000</v>
+        <v>337600000000</v>
       </c>
       <c r="AA3" s="28">
-        <v>377100000000</v>
+        <v>376600000000</v>
       </c>
       <c r="AB3" s="28">
         <v>416300000000</v>
       </c>
       <c r="AC3" s="28">
-        <v>436900000000</v>
+        <v>451900000000</v>
       </c>
       <c r="AD3" s="18" t="s">
         <v>109</v>
@@ -3393,23 +6118,23 @@
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>5.8563973468723995E-2</v>
+        <v>5.7856849905952634E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12257849031396129</v>
+        <v>0.12834224598930488</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12198750371913114</v>
+        <v>0.11552132701421791</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10395120657650492</v>
+        <v>0.105416887944769</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>4.9483545520057737E-2</v>
+        <v>8.5515253423012361E-2</v>
       </c>
       <c r="AD4" s="17">
         <f>(X4+W4+V4)/3</f>
@@ -4463,15 +7188,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>4.7835848336138254</v>
+        <v>5.5210864246418421</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>22.560028013072767</v>
+        <v>26.03818448609351</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>22.545742376270621</v>
+        <v>26.02169638393601</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -9521,10 +12246,10 @@
       <c r="X83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE83" s="61" t="s">
+      <c r="AE83" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="AF83" s="62"/>
+      <c r="AF83" s="93"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9599,10 +12324,10 @@
       <c r="X84" s="1">
         <v>707000000</v>
       </c>
-      <c r="AE84" s="63" t="s">
+      <c r="AE84" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="AF84" s="64"/>
+      <c r="AF84" s="95"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10348,10 +13073,10 @@
       <c r="X93" s="1">
         <v>1589000000</v>
       </c>
-      <c r="AE93" s="63" t="s">
+      <c r="AE93" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="AF93" s="64"/>
+      <c r="AF93" s="95"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10511,7 +13236,7 @@
       </c>
       <c r="AF95" s="55" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.0998000000000001</v>
+        <v>1.0939000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10672,7 +13397,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>8.8296390000000002E-2</v>
+        <v>8.8042395000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10748,10 +13473,10 @@
       <c r="X98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE98" s="63" t="s">
+      <c r="AE98" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="AF98" s="64"/>
+      <c r="AF98" s="95"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10912,7 +13637,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>2.1465317661966268E-2</v>
+        <v>1.8651480196902919E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10993,7 +13718,7 @@
       </c>
       <c r="AF101" s="49" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1352970000000</v>
+        <v>1561562000000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11074,7 +13799,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.97853468233803376</v>
+        <v>0.98134851980309712</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11155,7 +13880,7 @@
       </c>
       <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>1382649000000</v>
+        <v>1591241000000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11231,10 +13956,10 @@
       <c r="X104" s="11">
         <v>21879000000</v>
       </c>
-      <c r="AE104" s="63" t="s">
+      <c r="AE104" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="AF104" s="64"/>
+      <c r="AF104" s="95"/>
     </row>
     <row r="105" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11340,7 +14065,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.6618172409165708E-2</v>
+        <v>8.658890834641049E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11418,23 +14143,23 @@
       </c>
       <c r="Y106" s="57">
         <f>X106*(1+$AF$106)</f>
-        <v>65489689764.619743</v>
+        <v>65922816076.455643</v>
       </c>
       <c r="Z106" s="57">
         <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
-        <v>71469746133.413437</v>
+        <v>72418224953.344421</v>
       </c>
       <c r="AA106" s="57">
         <f t="shared" si="9"/>
-        <v>77995859054.047287</v>
+        <v>79553629798.078903</v>
       </c>
       <c r="AB106" s="57">
         <f t="shared" si="9"/>
-        <v>85117890557.816452</v>
+        <v>87392089741.596344</v>
       </c>
       <c r="AC106" s="57">
         <f t="shared" si="9"/>
-        <v>92890255724.883453</v>
+        <v>96002877163.345474</v>
       </c>
       <c r="AD106" s="39" t="s">
         <v>146</v>
@@ -11444,7 +14169,7 @@
       </c>
       <c r="AF106" s="41">
         <f>(SUM(Y4:AC4)/5)</f>
-        <v>9.1312943919675815E-2</v>
+        <v>9.8530512855451363E-2</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11478,7 +14203,7 @@
       <c r="AB107" s="39"/>
       <c r="AC107" s="42">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>1545201819452.9033</v>
+        <v>1597738159912.7534</v>
       </c>
       <c r="AD107" s="43" t="s">
         <v>148</v>
@@ -11493,23 +14218,23 @@
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="Y108" s="42">
         <f t="shared" ref="Y108:AA108" si="10">Y107+Y106</f>
-        <v>65489689764.619743</v>
+        <v>65922816076.455643</v>
       </c>
       <c r="Z108" s="42">
         <f t="shared" si="10"/>
-        <v>71469746133.413437</v>
+        <v>72418224953.344421</v>
       </c>
       <c r="AA108" s="42">
         <f t="shared" si="10"/>
-        <v>77995859054.047287</v>
+        <v>79553629798.078903</v>
       </c>
       <c r="AB108" s="42">
         <f>AB107+AB106</f>
-        <v>85117890557.816452</v>
+        <v>87392089741.596344</v>
       </c>
       <c r="AC108" s="42">
         <f>AC107+AC106</f>
-        <v>1638092075177.7869</v>
+        <v>1693741037076.0989</v>
       </c>
       <c r="AD108" s="43" t="s">
         <v>144</v>
@@ -11519,14 +14244,14 @@
       </c>
       <c r="AF108" s="47">
         <f>AF105</f>
-        <v>8.6618172409165708E-2</v>
+        <v>8.658890834641049E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="59" t="s">
+      <c r="Y109" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="Z109" s="60"/>
+      <c r="Z109" s="91"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="Y110" s="48" t="s">
@@ -11534,7 +14259,7 @@
       </c>
       <c r="Z110" s="49">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>1323962122827.7815</v>
+        <v>1364911023552.3896</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11561,7 +14286,7 @@
       </c>
       <c r="Z113" s="49">
         <f>Z110+Z111-Z112</f>
-        <v>1408045122827.7815</v>
+        <v>1448994023552.3896</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11579,7 +14304,7 @@
       </c>
       <c r="Z115" s="58">
         <f>Z113/Z114</f>
-        <v>107.88731542761869</v>
+        <v>111.02490448443643</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11588,7 +14313,7 @@
       </c>
       <c r="Z116" s="56" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
-        <v>105.91</v>
+        <v>122.76</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11597,7 +14322,7 @@
       </c>
       <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>1.8669770820684439E-2</v>
+        <v>-9.559380511211768E-2</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11606,7 +14331,7 @@
       </c>
       <c r="Z118" s="54" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
@@ -11619,56 +14344,1390 @@
     <mergeCell ref="AE104:AF104"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/GOOG" display="ROIC.AI | GOOG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B36" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B74" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C36" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C74" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D36" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D74" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E36" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E74" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F36" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F74" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G36" r:id="rId12" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G74" r:id="rId13" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H36" r:id="rId14" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H74" r:id="rId15" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I36" r:id="rId16" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I74" r:id="rId17" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J36" r:id="rId18" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J74" r:id="rId19" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K36" r:id="rId20" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K74" r:id="rId21" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L36" r:id="rId22" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L74" r:id="rId23" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M36" r:id="rId24" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M74" r:id="rId25" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N36" r:id="rId26" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N74" r:id="rId27" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O36" r:id="rId28" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O74" r:id="rId29" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="P36" r:id="rId30" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="P74" r:id="rId31" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q36" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204416000012/goog10-k2015.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q74" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204416000012/goog10-k2015.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="R36" r:id="rId34" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204417000008/goog10-kq42016.htm" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="R74" r:id="rId35" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204417000008/goog10-kq42016.htm" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="S36" r:id="rId36" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204418000007/goog10-kq42017.htm" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="S74" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204418000007/goog10-kq42017.htm" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="T36" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204419000004/goog10-kq42018.htm" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T74" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204419000004/goog10-kq42018.htm" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="U36" r:id="rId40" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204420000008/0001652044-20-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="U74" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204420000008/0001652044-20-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="V36" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204421000010/0001652044-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204421000010/0001652044-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="W36" r:id="rId44" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204422000019/0001652044-22-000019-index.htm" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="W74" r:id="rId45" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204422000019/0001652044-22-000019-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="X36" r:id="rId46" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204423000016/0001652044-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="X74" r:id="rId47" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204423000016/0001652044-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Y1" r:id="rId48" display="https://finbox.com/NASDAQGS:GOOG/explorer/revenue_proj" xr:uid="{3EBB5A77-AF41-8C41-9BFA-A2E487CE246D}"/>
+    <hyperlink ref="B36" r:id="rId1" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B74" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C36" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C74" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D36" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D74" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E36" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E74" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F36" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F74" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G36" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G74" r:id="rId12" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H36" r:id="rId13" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H74" r:id="rId14" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I36" r:id="rId15" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I74" r:id="rId16" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J36" r:id="rId17" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J74" r:id="rId18" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K36" r:id="rId19" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K74" r:id="rId20" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L36" r:id="rId21" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L74" r:id="rId22" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M36" r:id="rId23" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M74" r:id="rId24" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N36" r:id="rId25" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N74" r:id="rId26" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O36" r:id="rId27" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O74" r:id="rId28" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="P36" r:id="rId29" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="P74" r:id="rId30" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q36" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204416000012/goog10-k2015.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q74" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204416000012/goog10-k2015.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="R36" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204417000008/goog10-kq42016.htm" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="R74" r:id="rId34" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204417000008/goog10-kq42016.htm" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="S36" r:id="rId35" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204418000007/goog10-kq42017.htm" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="S74" r:id="rId36" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204418000007/goog10-kq42017.htm" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="T36" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204419000004/goog10-kq42018.htm" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="T74" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204419000004/goog10-kq42018.htm" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="U36" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204420000008/0001652044-20-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="U74" r:id="rId40" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204420000008/0001652044-20-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="V36" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204421000010/0001652044-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="V74" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204421000010/0001652044-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="W36" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204422000019/0001652044-22-000019-index.htm" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="W74" r:id="rId44" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204422000019/0001652044-22-000019-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="X36" r:id="rId45" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204423000016/0001652044-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="X74" r:id="rId46" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204423000016/0001652044-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Y1" r:id="rId47" display="https://finbox.com/NASDAQGS:GOOG/explorer/revenue_proj" xr:uid="{3EBB5A77-AF41-8C41-9BFA-A2E487CE246D}"/>
+    <hyperlink ref="A1" r:id="rId48" tooltip="https://roic.ai/company/GOOG" display="ROIC.AI | GOOG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId49"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D109D3B-259C-8343-9D7B-411217F80C02}">
+  <dimension ref="A1:S49"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="76">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="76">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="76">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="76">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="60">
+        <v>85296</v>
+      </c>
+      <c r="C2" s="60">
+        <v>98115</v>
+      </c>
+      <c r="D2" s="60">
+        <v>104062</v>
+      </c>
+      <c r="E2" s="60">
+        <v>148951</v>
+      </c>
+      <c r="F2" s="60">
+        <v>162450</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69">
+        <f t="shared" ref="C3:D3" si="0">C2/B2-1</f>
+        <v>0.15028840742824978</v>
+      </c>
+      <c r="D3" s="69">
+        <f t="shared" si="0"/>
+        <v>6.0612546501554343E-2</v>
+      </c>
+      <c r="E3" s="69">
+        <f>E2/D2-1</f>
+        <v>0.43136783840402826</v>
+      </c>
+      <c r="F3" s="69">
+        <f>F2/E2-1</f>
+        <v>9.0627118985438182E-2</v>
+      </c>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="60">
+        <v>11155</v>
+      </c>
+      <c r="C4" s="60">
+        <v>15149</v>
+      </c>
+      <c r="D4" s="60">
+        <v>19772</v>
+      </c>
+      <c r="E4" s="60">
+        <v>28845</v>
+      </c>
+      <c r="F4" s="60">
+        <v>29243</v>
+      </c>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69">
+        <f t="shared" ref="C5:D5" si="1">C4/B4-1</f>
+        <v>0.35804571940833707</v>
+      </c>
+      <c r="D5" s="69">
+        <f t="shared" si="1"/>
+        <v>0.30516865799722748</v>
+      </c>
+      <c r="E5" s="69">
+        <f>E4/D4-1</f>
+        <v>0.45888124620675708</v>
+      </c>
+      <c r="F5" s="69">
+        <f>F4/E4-1</f>
+        <v>1.3797885248743258E-2</v>
+      </c>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="60">
+        <v>20010</v>
+      </c>
+      <c r="C6" s="60">
+        <v>21547</v>
+      </c>
+      <c r="D6" s="60">
+        <v>23090</v>
+      </c>
+      <c r="E6" s="60">
+        <v>31701</v>
+      </c>
+      <c r="F6" s="60">
+        <v>32780</v>
+      </c>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69">
+        <f t="shared" ref="C7:D7" si="2">C6/B6-1</f>
+        <v>7.6811594202898625E-2</v>
+      </c>
+      <c r="D7" s="69">
+        <f t="shared" si="2"/>
+        <v>7.161089710864621E-2</v>
+      </c>
+      <c r="E7" s="69">
+        <f>E6/D6-1</f>
+        <v>0.37293200519705505</v>
+      </c>
+      <c r="F7" s="69">
+        <f>F6/E6-1</f>
+        <v>3.4036781174095365E-2</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="75">
+        <v>116461</v>
+      </c>
+      <c r="C8" s="75">
+        <v>134811</v>
+      </c>
+      <c r="D8" s="75">
+        <v>146924</v>
+      </c>
+      <c r="E8" s="75">
+        <v>209497</v>
+      </c>
+      <c r="F8" s="75">
+        <v>224473</v>
+      </c>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="69">
+        <f t="shared" ref="C9:D9" si="3">C8/B8-1</f>
+        <v>0.15756347618516076</v>
+      </c>
+      <c r="D9" s="69">
+        <f t="shared" si="3"/>
+        <v>8.9851718331590114E-2</v>
+      </c>
+      <c r="E9" s="69">
+        <f>E8/D8-1</f>
+        <v>0.42588685306689178</v>
+      </c>
+      <c r="F9" s="69">
+        <f>F8/E8-1</f>
+        <v>7.14855105323704E-2</v>
+      </c>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="60">
+        <v>14063</v>
+      </c>
+      <c r="C10" s="60">
+        <v>17014</v>
+      </c>
+      <c r="D10" s="60">
+        <v>21711</v>
+      </c>
+      <c r="E10" s="60">
+        <v>28032</v>
+      </c>
+      <c r="F10" s="60">
+        <v>29055</v>
+      </c>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="69">
+        <f t="shared" ref="C11:D11" si="4">C10/B10-1</f>
+        <v>0.20984142786034266</v>
+      </c>
+      <c r="D11" s="69">
+        <f t="shared" si="4"/>
+        <v>0.27606676854355228</v>
+      </c>
+      <c r="E11" s="69">
+        <f>E10/D10-1</f>
+        <v>0.29114273870388274</v>
+      </c>
+      <c r="F11" s="69">
+        <f>F10/E10-1</f>
+        <v>3.6494006849315141E-2</v>
+      </c>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="75">
+        <v>130524</v>
+      </c>
+      <c r="C12" s="75">
+        <v>151825</v>
+      </c>
+      <c r="D12" s="75">
+        <v>168635</v>
+      </c>
+      <c r="E12" s="75">
+        <v>237529</v>
+      </c>
+      <c r="F12" s="75">
+        <v>253528</v>
+      </c>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="69">
+        <f t="shared" ref="C13:D13" si="5">C12/B12-1</f>
+        <v>0.16319604057491333</v>
+      </c>
+      <c r="D13" s="69">
+        <f t="shared" si="5"/>
+        <v>0.11071957846204517</v>
+      </c>
+      <c r="E13" s="69">
+        <f>E12/D12-1</f>
+        <v>0.40853915260770313</v>
+      </c>
+      <c r="F13" s="69">
+        <f>F12/E12-1</f>
+        <v>6.7355986005919188E-2</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="60">
+        <v>5838</v>
+      </c>
+      <c r="C14" s="60">
+        <v>8918</v>
+      </c>
+      <c r="D14" s="60">
+        <v>13059</v>
+      </c>
+      <c r="E14" s="60">
+        <v>19206</v>
+      </c>
+      <c r="F14" s="60">
+        <v>26280</v>
+      </c>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="69">
+        <f t="shared" ref="C15:D15" si="6">C14/B14-1</f>
+        <v>0.52757793764988015</v>
+      </c>
+      <c r="D15" s="69">
+        <f t="shared" si="6"/>
+        <v>0.46434178066831122</v>
+      </c>
+      <c r="E15" s="69">
+        <f>E14/D14-1</f>
+        <v>0.47070985527222597</v>
+      </c>
+      <c r="F15" s="69">
+        <f>F14/E14-1</f>
+        <v>0.36832239925023424</v>
+      </c>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="61">
+        <v>595</v>
+      </c>
+      <c r="C16" s="61">
+        <v>659</v>
+      </c>
+      <c r="D16" s="61">
+        <v>657</v>
+      </c>
+      <c r="E16" s="61">
+        <v>753</v>
+      </c>
+      <c r="F16" s="60">
+        <v>1068</v>
+      </c>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="69">
+        <f t="shared" ref="C17:D17" si="7">C16/B16-1</f>
+        <v>0.1075630252100841</v>
+      </c>
+      <c r="D17" s="69">
+        <f t="shared" si="7"/>
+        <v>-3.0349013657056112E-3</v>
+      </c>
+      <c r="E17" s="69">
+        <f>E16/D16-1</f>
+        <v>0.14611872146118721</v>
+      </c>
+      <c r="F17" s="69">
+        <f>F16/E16-1</f>
+        <v>0.41832669322709171</v>
+      </c>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="64">
+        <v>-138</v>
+      </c>
+      <c r="C18" s="65">
+        <v>455</v>
+      </c>
+      <c r="D18" s="65">
+        <v>176</v>
+      </c>
+      <c r="E18" s="65">
+        <v>149</v>
+      </c>
+      <c r="F18" s="66">
+        <v>1960</v>
+      </c>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+    </row>
+    <row r="19" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="73">
+        <v>136819</v>
+      </c>
+      <c r="C19" s="73">
+        <v>161857</v>
+      </c>
+      <c r="D19" s="73">
+        <v>182527</v>
+      </c>
+      <c r="E19" s="73">
+        <v>257637</v>
+      </c>
+      <c r="F19" s="73">
+        <v>282836</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="69">
+        <f>C19/B19-1</f>
+        <v>0.18300089899794614</v>
+      </c>
+      <c r="D20" s="69">
+        <f>D19/C19-1</f>
+        <v>0.12770532012826141</v>
+      </c>
+      <c r="E20" s="69">
+        <f>E19/D19-1</f>
+        <v>0.41150076427049154</v>
+      </c>
+      <c r="F20" s="69">
+        <f>F19/E19-1</f>
+        <v>9.7808156437157789E-2</v>
+      </c>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+    </row>
+    <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="79">
+        <f>F2/F19</f>
+        <v>0.57436111386103605</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="80">
+        <f>F4/F19</f>
+        <v>0.10339207173061421</v>
+      </c>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="79">
+        <f>F6/F19</f>
+        <v>0.11589755193822568</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="80">
+        <f>F10/F19</f>
+        <v>0.10272737558160913</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="79">
+        <f>F14/F19</f>
+        <v>9.2916036148156522E-2</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="81">
+        <f>F16/F19</f>
+        <v>3.7760398251990555E-3</v>
+      </c>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="71"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="71"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Technology/Software/Alphabet.xlsx
+++ b/Technology/Software/Alphabet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF066DDA-477C-AC40-B41D-D1DEC871BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C833A-7620-074A-866D-A3DA04C81B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5132,11 +5132,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>125.97</v>
+    <v>126.43</v>
     <v>83.34</v>
-    <v>1.0939000000000001</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-5.6990000000000003E-4</v>
+    <v>1.0851</v>
+    <v>1.1299999999999999</v>
+    <v>9.1509999999999994E-3</v>
+    <v>0.23</v>
+    <v>1.8459999999999998E-3</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
     <v>190711</v>
@@ -5144,24 +5146,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>125.97</v>
+    <v>125.26</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.99996107578</v>
+    <v>45072.99999777734</v>
     <v>0</v>
-    <v>122.15</v>
-    <v>1561562000000</v>
+    <v>122.45</v>
+    <v>1572936000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>123.55</v>
-    <v>27.319800000000001</v>
-    <v>122.83</v>
-    <v>122.76</v>
+    <v>123.17</v>
+    <v>27.48</v>
+    <v>123.48</v>
+    <v>124.61</v>
+    <v>124.84</v>
     <v>12697000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>78399</v>
-    <v>36019052</v>
+    <v>35635937</v>
+    <v>37926260</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -5193,6 +5196,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5213,6 +5218,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5229,7 +5235,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5240,13 +5246,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5312,13 +5321,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -5363,6 +5378,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -5370,6 +5388,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -5734,7 +5755,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="V83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA95" sqref="AA95"/>
+      <selection pane="bottomRight" activeCell="AB94" sqref="AB94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7188,15 +7209,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>5.5210864246418421</v>
+        <v>5.5613005416566494</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>26.03818448609351</v>
+        <v>26.227839658507303</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>26.02169638393601</v>
+        <v>26.211231461423097</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -13236,7 +13257,7 @@
       </c>
       <c r="AF95" s="55" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.0939000000000001</v>
+        <v>1.0851</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13397,7 +13418,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>8.8042395000000009E-2</v>
+        <v>8.7663555000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -13637,7 +13658,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>1.8651480196902919E-2</v>
+        <v>1.851910783313522E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13718,7 +13739,7 @@
       </c>
       <c r="AF101" s="49" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1561562000000</v>
+        <v>1572936000000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13799,7 +13820,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.98134851980309712</v>
+        <v>0.98148089216686474</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13880,7 +13901,7 @@
       </c>
       <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>1591241000000</v>
+        <v>1602615000000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -14065,7 +14086,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.658890834641049E-2</v>
+        <v>8.6227399738889612E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -14203,7 +14224,7 @@
       <c r="AB107" s="39"/>
       <c r="AC107" s="42">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>1597738159912.7534</v>
+        <v>1607171781131.95</v>
       </c>
       <c r="AD107" s="43" t="s">
         <v>148</v>
@@ -14234,7 +14255,7 @@
       </c>
       <c r="AC108" s="42">
         <f>AC107+AC106</f>
-        <v>1693741037076.0989</v>
+        <v>1703174658295.2954</v>
       </c>
       <c r="AD108" s="43" t="s">
         <v>144</v>
@@ -14244,7 +14265,7 @@
       </c>
       <c r="AF108" s="47">
         <f>AF105</f>
-        <v>8.658890834641049E-2</v>
+        <v>8.6227399738889612E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -14259,7 +14280,7 @@
       </c>
       <c r="Z110" s="49">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>1364911023552.3896</v>
+        <v>1373217894390.3884</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -14286,7 +14307,7 @@
       </c>
       <c r="Z113" s="49">
         <f>Z110+Z111-Z112</f>
-        <v>1448994023552.3896</v>
+        <v>1457300894390.3884</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -14304,7 +14325,7 @@
       </c>
       <c r="Z115" s="58">
         <f>Z113/Z114</f>
-        <v>111.02490448443643</v>
+        <v>111.6613940257061</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -14313,7 +14334,7 @@
       </c>
       <c r="Z116" s="56" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
-        <v>122.76</v>
+        <v>124.61</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -14322,7 +14343,7 @@
       </c>
       <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>-9.559380511211768E-2</v>
+        <v>-0.10391305653072702</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Alphabet.xlsx
+++ b/Technology/Software/Alphabet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C833A-7620-074A-866D-A3DA04C81B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AE9C8-BC87-C54D-A9C2-BC0DACDEF892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5132,13 +5132,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>126.43</v>
+    <v>129.04</v>
     <v>83.34</v>
-    <v>1.0851</v>
-    <v>1.1299999999999999</v>
-    <v>9.1509999999999994E-3</v>
-    <v>0.23</v>
-    <v>1.8459999999999998E-3</v>
+    <v>1.0789</v>
+    <v>2.6</v>
+    <v>2.1568E-2</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
     <v>190711</v>
@@ -5146,25 +5144,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>125.26</v>
+    <v>123.24</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.99999777734</v>
+    <v>45099.999874258596</v>
     <v>0</v>
-    <v>122.45</v>
-    <v>1572936000000</v>
+    <v>118.83</v>
+    <v>1534794000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>123.17</v>
-    <v>27.48</v>
-    <v>123.48</v>
-    <v>124.61</v>
-    <v>124.84</v>
+    <v>120</v>
+    <v>27.406600000000001</v>
+    <v>120.55</v>
+    <v>123.15</v>
     <v>12697000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>35635937</v>
-    <v>37926260</v>
+    <v>79598</v>
+    <v>33983290</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -5196,8 +5193,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5218,7 +5213,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5235,7 +5229,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5246,16 +5240,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5321,19 +5312,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -5378,9 +5363,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -5388,9 +5370,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -5755,7 +5734,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="V83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB94" sqref="AB94"/>
+      <selection pane="bottomRight" activeCell="Y95" sqref="Y95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7209,15 +7188,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>5.5613005416566494</v>
+        <v>5.426445007000523</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>26.227839658507303</v>
+        <v>25.591842860001336</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>26.211231461423097</v>
+        <v>25.575637393767707</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -13257,7 +13236,7 @@
       </c>
       <c r="AF95" s="55" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.0851</v>
+        <v>1.0789</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13418,7 +13397,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>8.7663555000000004E-2</v>
+        <v>8.7396644999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -13658,7 +13637,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>1.851910783313522E-2</v>
+        <v>1.8970605437102463E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13739,7 +13718,7 @@
       </c>
       <c r="AF101" s="49" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1572936000000</v>
+        <v>1534794000000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13820,7 +13799,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.98148089216686474</v>
+        <v>0.98102939456289751</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13901,7 +13880,7 @@
       </c>
       <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>1602615000000</v>
+        <v>1564473000000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -14086,7 +14065,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.6227399738889612E-2</v>
+        <v>8.5930539581821203E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -14224,7 +14203,7 @@
       <c r="AB107" s="39"/>
       <c r="AC107" s="42">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>1607171781131.95</v>
+        <v>1615002095300.4641</v>
       </c>
       <c r="AD107" s="43" t="s">
         <v>148</v>
@@ -14255,7 +14234,7 @@
       </c>
       <c r="AC108" s="42">
         <f>AC107+AC106</f>
-        <v>1703174658295.2954</v>
+        <v>1711004972463.8096</v>
       </c>
       <c r="AD108" s="43" t="s">
         <v>144</v>
@@ -14265,7 +14244,7 @@
       </c>
       <c r="AF108" s="47">
         <f>AF105</f>
-        <v>8.6227399738889612E-2</v>
+        <v>8.5930539581821203E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -14280,7 +14259,7 @@
       </c>
       <c r="Z110" s="49">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>1373217894390.3884</v>
+        <v>1380113205795.459</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -14307,7 +14286,7 @@
       </c>
       <c r="Z113" s="49">
         <f>Z110+Z111-Z112</f>
-        <v>1457300894390.3884</v>
+        <v>1464196205795.459</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -14325,7 +14304,7 @@
       </c>
       <c r="Z115" s="58">
         <f>Z113/Z114</f>
-        <v>111.6613940257061</v>
+        <v>112.18972697787493</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -14334,7 +14313,7 @@
       </c>
       <c r="Z116" s="56" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
-        <v>124.61</v>
+        <v>123.15</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -14343,7 +14322,7 @@
       </c>
       <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>-0.10391305653072702</v>
+        <v>-8.899937492590404E-2</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Alphabet.xlsx
+++ b/Technology/Software/Alphabet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AE9C8-BC87-C54D-A9C2-BC0DACDEF892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8AE587-31AC-1C42-9086-3292E384484A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="191">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -343,9 +346,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -394,9 +394,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -623,19 +617,51 @@
   </si>
   <si>
     <t>Other Bets YoY</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -985,19 +1011,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1012,12 +1025,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1059,80 +1081,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1176,10 +1137,10 @@
     <xf numFmtId="9" fontId="18" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1194,22 +1155,85 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1262,11 +1286,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>GOOG</a:t>
+              <a:t>Alphabet</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43390133376185125"/>
+          <c:y val="3.1904283799071675E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1300,10 +1333,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.9990522819577154E-2"/>
-          <c:y val="0.12704907054144005"/>
-          <c:w val="0.83896682224080044"/>
-          <c:h val="0.71349155775631135"/>
+          <c:x val="9.7074829931972778E-2"/>
+          <c:y val="0.15000394150093793"/>
+          <c:w val="0.8471428571428572"/>
+          <c:h val="0.68046226878814797"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1357,6 +1390,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Model!$B$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Model!$B$3:$X$3</c:f>
@@ -1437,7 +1548,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6226-E34D-BC55-0079408A0EAC}"/>
+              <c16:uniqueId val="{00000000-4F50-CE4D-8DDB-4CFFC6222352}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1446,11 +1557,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$19</c:f>
+              <c:f>Model!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1488,9 +1599,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Model!$B$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$19:$X$19</c:f>
+              <c:f>Model!$B$28:$X$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1498,77 +1687,77 @@
                   <c:v>-14690000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10068000</c:v>
+                  <c:v>6985000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213898000</c:v>
+                  <c:v>99656000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>401703000</c:v>
+                  <c:v>105648000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>798707000</c:v>
+                  <c:v>399119000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2435489000</c:v>
+                  <c:v>1465397000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4582979000</c:v>
+                  <c:v>3077446000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6642841000</c:v>
+                  <c:v>4203720000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7743016000</c:v>
+                  <c:v>4226858000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10135170000</c:v>
+                  <c:v>6520448000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12771000000</c:v>
+                  <c:v>8505000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14235000000</c:v>
+                  <c:v>9737000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16381000000</c:v>
+                  <c:v>10737000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19224000000</c:v>
+                  <c:v>12920000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22855000000</c:v>
+                  <c:v>14444000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24818000000</c:v>
+                  <c:v>16348000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30418000000</c:v>
+                  <c:v>19478000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34217000000</c:v>
+                  <c:v>12662000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44062000000</c:v>
+                  <c:v>30736000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51506000000</c:v>
+                  <c:v>34343000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>61914000000</c:v>
+                  <c:v>40269000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>103521000000</c:v>
+                  <c:v>76033000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87613000000</c:v>
+                  <c:v>59972000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6226-E34D-BC55-0079408A0EAC}"/>
+              <c16:uniqueId val="{00000001-4F50-CE4D-8DDB-4CFFC6222352}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1577,11 +1766,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$106</c:f>
+              <c:f>Model!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1619,9 +1808,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Model!$B$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$106:$X$106</c:f>
+              <c:f>Model!$B$107:$X$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1699,7 +1966,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6226-E34D-BC55-0079408A0EAC}"/>
+              <c16:uniqueId val="{00000002-4F50-CE4D-8DDB-4CFFC6222352}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1713,11 +1980,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1846248063"/>
-        <c:axId val="1846249791"/>
+        <c:axId val="1598473312"/>
+        <c:axId val="1598475040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1846248063"/>
+        <c:axId val="1598473312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +2012,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1757,7 +2024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846249791"/>
+        <c:crossAx val="1598475040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1765,7 +2032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1846249791"/>
+        <c:axId val="1598475040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1814,7 +2081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846248063"/>
+        <c:crossAx val="1598473312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1832,10 +2099,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36385863139692698"/>
-          <c:y val="0.9110863300592581"/>
-          <c:w val="0.30413097442446502"/>
-          <c:h val="5.2831195713937823E-2"/>
+          <c:x val="0.33993443676683271"/>
+          <c:y val="0.90030309069609116"/>
+          <c:w val="0.32285221490170873"/>
+          <c:h val="7.0451315821426441E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4899,22 +5166,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>7258</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>18142</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC6638B-4E0C-1817-5123-942EF63C46AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82697B0A-B267-B3C1-6179-255587EE295F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5010,6 +5277,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5134,9 +5455,11 @@
     <v>Powered by Refinitiv</v>
     <v>129.04</v>
     <v>83.34</v>
-    <v>1.0789</v>
-    <v>2.6</v>
-    <v>2.1568E-2</v>
+    <v>1.0519000000000001</v>
+    <v>0.68</v>
+    <v>5.5950000000000001E-3</v>
+    <v>7.39</v>
+    <v>6.0469999999999996E-2</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
     <v>190711</v>
@@ -5144,24 +5467,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>123.24</v>
+    <v>123.145</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999874258596</v>
+    <v>45132.99998584453</v>
     <v>0</v>
-    <v>118.83</v>
-    <v>1534794000000</v>
+    <v>121.02</v>
+    <v>1545122000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>120</v>
-    <v>27.406600000000001</v>
-    <v>120.55</v>
-    <v>123.15</v>
+    <v>121.36</v>
+    <v>27.045999999999999</v>
+    <v>121.53</v>
+    <v>122.21</v>
+    <v>129.6</v>
     <v>12697000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>79598</v>
-    <v>33983290</v>
+    <v>52509551</v>
+    <v>32053989</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -5193,6 +5517,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5213,6 +5539,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5229,7 +5556,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5240,13 +5567,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5312,13 +5642,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -5363,6 +5699,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -5370,6 +5709,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -5731,10 +6073,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y95" sqref="Y95"/>
+      <selection pane="bottomRight" activeCell="AA92" sqref="AA92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5817,19 +6159,19 @@
       <c r="X1" s="8">
         <v>2022</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2023</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2024</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2025</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2026</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -5838,82 +6180,82 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
@@ -5995,37 +6337,37 @@
       <c r="X3" s="1">
         <v>282836000000</v>
       </c>
-      <c r="Y3" s="28">
-        <v>299200000000</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>337600000000</v>
-      </c>
-      <c r="AA3" s="28">
-        <v>376600000000</v>
-      </c>
-      <c r="AB3" s="28">
-        <v>416300000000</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>451900000000</v>
+      <c r="Y3" s="24">
+        <v>300400000000</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>335200000000</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>371800000000</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>414600000000</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>440200000000</v>
       </c>
       <c r="AD3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -6118,23 +6460,23 @@
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>5.7856849905952634E-2</v>
+        <v>6.2099591282580802E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12834224598930488</v>
+        <v>0.11584553928095875</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11552132701421791</v>
+        <v>0.1091885441527447</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.105416887944769</v>
+        <v>0.115115653577192</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>8.5515253423012361E-2</v>
+        <v>6.1746261456825824E-2</v>
       </c>
       <c r="AD4" s="17">
         <f>(X4+W4+V4)/3</f>
@@ -6149,7 +6491,7 @@
         <v>0.28314782547863127</v>
       </c>
       <c r="AG4" s="17">
-        <f>(X105+W105+V105)/3</f>
+        <f>(X106+W106+V106)/3</f>
         <v>0.28097414051766756</v>
       </c>
     </row>
@@ -6301,16 +6643,16 @@
         <v>156633000000</v>
       </c>
       <c r="AD6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AG6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -6399,7 +6741,7 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="AG7" s="20">
-        <f>X106/X3</f>
+        <f>X107/X3</f>
         <v>0.21217242500954617</v>
       </c>
     </row>
@@ -6479,7 +6821,7 @@
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -6574,16 +6916,16 @@
         <v>0.13965690364734334</v>
       </c>
       <c r="AD9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -6591,25 +6933,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1">
         <v>1279250000</v>
@@ -6681,25 +7023,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1">
         <v>1461266000</v>
@@ -6758,7 +7100,7 @@
         <v>14742000</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1">
         <v>89784000</v>
@@ -6824,21 +7166,21 @@
         <v>42291000000</v>
       </c>
       <c r="AD12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AG12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -6957,13 +7299,13 @@
         <v>2506000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>201000000</v>
@@ -6972,55 +7314,55 @@
         <v>90000000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -7097,16 +7439,16 @@
         <v>81791000000</v>
       </c>
       <c r="AD15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AG15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -7182,47 +7524,47 @@
       <c r="X16" s="1">
         <v>207994000000</v>
       </c>
-      <c r="AD16" s="29">
+      <c r="AD16" s="25">
         <f>(X35+W35+V35+U35+T35)/5</f>
         <v>-7.4136253436058452E-3</v>
       </c>
-      <c r="AE16" s="30">
+      <c r="AE16" s="64">
         <f>AF101/X3</f>
-        <v>5.426445007000523</v>
-      </c>
-      <c r="AF16" s="30">
+        <v>5.4629608677820363</v>
+      </c>
+      <c r="AF16" s="64">
         <f>AF101/X28</f>
-        <v>25.591842860001336</v>
-      </c>
-      <c r="AG16" s="31">
-        <f>AF101/X106</f>
-        <v>25.575637393767707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+        <v>25.764056559727873</v>
+      </c>
+      <c r="AG16" s="66">
+        <f>AF101/X107</f>
+        <v>25.747742042992833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1">
         <v>1203000</v>
@@ -7273,15 +7615,15 @@
         <v>357000000</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>28983000</v>
@@ -7347,10 +7689,19 @@
         <v>15928000000</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="AE18" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF18" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -7423,14 +7774,41 @@
       <c r="X19" s="10">
         <v>87613000000</v>
       </c>
-      <c r="AD19" s="32">
+      <c r="Y19" s="72">
+        <v>116700000000</v>
+      </c>
+      <c r="Z19" s="72">
+        <v>133600000000</v>
+      </c>
+      <c r="AA19" s="72">
+        <v>152000000000</v>
+      </c>
+      <c r="AB19" s="72">
+        <v>167200000000</v>
+      </c>
+      <c r="AC19" s="72">
+        <v>183000000000</v>
+      </c>
+      <c r="AD19" s="26">
         <f>X40-X56-X61</f>
         <v>84083000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="64">
+        <f>AF101/Y3</f>
+        <v>5.1435486018641807</v>
+      </c>
+      <c r="AF19" s="65">
+        <f>AF101/Y28</f>
+        <v>22.746131990755053</v>
+      </c>
+      <c r="AG19" s="66">
+        <f>AF101/Y106</f>
+        <v>21.135943313635369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -7521,8 +7899,30 @@
         <f t="shared" si="3"/>
         <v>-0.15366930381275301</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y20" s="16">
+        <f t="shared" ref="Y20" si="4">(Y19/X19)-1</f>
+        <v>0.33199411046305904</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" ref="Z20" si="5">(Z19/Y19)-1</f>
+        <v>0.14481576692373599</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20" si="6">(AA19/Z19)-1</f>
+        <v>0.13772455089820368</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20" si="7">(AB19/AA19)-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" ref="AC20" si="8">(AC19/AB19)-1</f>
+        <v>9.4497607655502414E-2</v>
+      </c>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+    </row>
+    <row r="21" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -7595,8 +7995,34 @@
       <c r="X21" s="2">
         <v>0.30980000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y21" s="73">
+        <f>Y19/Y3</f>
+        <v>0.3884820239680426</v>
+      </c>
+      <c r="Z21" s="73">
+        <f t="shared" ref="Z21:AC21" si="9">Z19/Z3</f>
+        <v>0.39856801909307876</v>
+      </c>
+      <c r="AA21" s="73">
+        <f t="shared" si="9"/>
+        <v>0.40882194728348575</v>
+      </c>
+      <c r="AB21" s="73">
+        <f t="shared" si="9"/>
+        <v>0.40328027013989387</v>
+      </c>
+      <c r="AC21" s="73">
+        <f t="shared" si="9"/>
+        <v>0.41572012721490231</v>
+      </c>
+      <c r="AF21" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG21" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -7669,8 +8095,16 @@
       <c r="X22" s="10">
         <v>74842000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="AF22" s="67">
+        <f>X98/AF101</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="68">
+        <f>X107/AF101</f>
+        <v>3.8838357100604355E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -7744,7 +8178,7 @@
         <v>0.2646</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -7818,7 +8252,7 @@
         <v>-3514000000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -7892,7 +8326,7 @@
         <v>71328000000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -7966,12 +8400,12 @@
         <v>0.25219999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>3083000</v>
@@ -8040,7 +8474,7 @@
         <v>11356000000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -8113,10 +8547,25 @@
       <c r="X28" s="11">
         <v>59972000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="69">
+        <v>67929000000</v>
+      </c>
+      <c r="Z28" s="69">
+        <v>79127000000</v>
+      </c>
+      <c r="AA28" s="69">
+        <v>90280000000</v>
+      </c>
+      <c r="AB28" s="69">
+        <v>102800000000</v>
+      </c>
+      <c r="AC28" s="69">
+        <v>112000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -8132,83 +8581,103 @@
         <v>6.0126836316930277E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:X29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:X29" si="10">(F28/E28)-1</f>
         <v>2.777818794487354</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.6715791530846689</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.1000766345229311</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.36597685223396281</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.5041724948379223E-3</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.54262291281136021</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.30435822814628688</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.14485596707818926</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.10270103728047664</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.2033156375151346</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11795665634674912</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.1318194405981723</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.1914607291411794</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.34993325803470587</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.4274206286526616</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11735424258198845</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.17255335876306677</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.88812734361419454</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.21123722594136751</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y29" s="16">
+        <f t="shared" ref="Y29" si="11">(Y28/X28)-1</f>
+        <v>0.13267858333889149</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" ref="Z29" si="12">(Z28/Y28)-1</f>
+        <v>0.16484859191214363</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="13">(AA28/Z28)-1</f>
+        <v>0.14095062368091793</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="14">(AB28/AA28)-1</f>
+        <v>0.13867966326982728</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" ref="AC29" si="15">(AC28/AB28)-1</f>
+        <v>8.9494163424124418E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -8281,8 +8750,28 @@
       <c r="X30" s="2">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y30" s="70">
+        <f>Y28/Y3</f>
+        <v>0.22612849533954726</v>
+      </c>
+      <c r="Z30" s="70">
+        <f t="shared" ref="Z30:AC30" si="16">Z28/Z3</f>
+        <v>0.23605906921241049</v>
+      </c>
+      <c r="AA30" s="70">
+        <f t="shared" si="16"/>
+        <v>0.24281871974179667</v>
+      </c>
+      <c r="AB30" s="70">
+        <f t="shared" si="16"/>
+        <v>0.24794983116256633</v>
+      </c>
+      <c r="AC30" s="70">
+        <f t="shared" si="16"/>
+        <v>0.25442980463425713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -8290,7 +8779,7 @@
         <v>-0.01</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="12">
         <v>0.04</v>
@@ -8355,8 +8844,23 @@
       <c r="X31" s="12">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y31" s="71">
+        <v>5.35</v>
+      </c>
+      <c r="Z31" s="71">
+        <v>6.23</v>
+      </c>
+      <c r="AA31" s="71">
+        <v>7.11</v>
+      </c>
+      <c r="AB31" s="71">
+        <v>8.1</v>
+      </c>
+      <c r="AC31" s="71">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -8364,7 +8868,7 @@
         <v>-0.01</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="12">
         <v>0.02</v>
@@ -8580,7 +9084,7 @@
     </row>
     <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -8588,87 +9092,87 @@
         <v>1.7863706895818865</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:X35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:X35" si="17">(D34-C34)/C34</f>
         <v>0.37404163280941904</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.2901830633101896E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.9993878018746861E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.6089271392527035E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.5839835150778354E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.1238416611301667E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.9902870773130418E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2006286423984412E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2259822972885161E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.5558625201317912E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.9572380801215834E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0278977241795126</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.4957579068494632E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.3553752604611084E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.7977090980327033E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.471094728419042E-4</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.8031884657955479E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.6502663153232122E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.3615165626159649E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -8677,73 +9181,73 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="21" x14ac:dyDescent="0.25">
@@ -8751,73 +9255,73 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8825,10 +9329,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>57752000</v>
@@ -8899,10 +9403,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1">
         <v>88579000</v>
@@ -8973,10 +9477,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>146331000</v>
@@ -9047,10 +9551,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>61994000</v>
@@ -9121,40 +9625,40 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1">
         <v>505000000</v>
@@ -9163,10 +9667,10 @@
         <v>426000000</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1">
         <v>268000000</v>
@@ -9195,10 +9699,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>23471000</v>
@@ -9269,10 +9773,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10">
         <v>231796000</v>
@@ -9343,10 +9847,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>53873000</v>
@@ -9417,22 +9921,22 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1">
         <v>1545119000</v>
@@ -9491,10 +9995,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>96000</v>
@@ -9565,10 +10069,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>96000</v>
@@ -9639,25 +10143,25 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1">
         <v>1059694000</v>
@@ -9713,31 +10217,31 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1">
         <v>11590000</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1">
         <v>33219000</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>262611000</v>
@@ -9746,16 +10250,16 @@
         <v>265000000</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1">
         <v>251000000</v>
@@ -9787,10 +10291,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>1127000</v>
@@ -9861,10 +10365,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1">
         <v>55096000</v>
@@ -9935,73 +10439,73 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
         <v>46872000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1">
         <v>1000000</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -10009,7 +10513,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>46872000</v>
@@ -10083,10 +10587,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>9394000</v>
@@ -10157,10 +10661,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>4350000</v>
@@ -10172,19 +10676,19 @@
         <v>1902000</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1">
         <v>3465000000</v>
@@ -10205,13 +10709,13 @@
         <v>3225000000</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1">
         <v>1199000000</v>
@@ -10231,34 +10735,34 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1">
         <v>81549000</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1">
         <v>37000000</v>
@@ -10297,7 +10801,7 @@
         <v>808000000</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -10305,10 +10809,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1">
         <v>11345000</v>
@@ -10379,10 +10883,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>64419000</v>
@@ -10453,10 +10957,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10">
         <v>89508000</v>
@@ -10527,10 +11031,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>6512000</v>
@@ -10539,25 +11043,25 @@
         <v>1988000</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1">
         <v>2986000000</v>
@@ -10601,25 +11105,25 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1">
         <v>30249000</v>
@@ -10675,10 +11179,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
         <v>580000</v>
@@ -10687,7 +11191,7 @@
         <v>18510000</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1">
         <v>35419000</v>
@@ -10696,16 +11200,16 @@
         <v>40421000</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1">
         <v>12515000</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1">
         <v>287000000</v>
@@ -10749,10 +11253,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>16339000</v>
@@ -10823,10 +11327,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>23431000</v>
@@ -10897,73 +11401,73 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1">
         <v>19638000</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -10971,7 +11475,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>19638000</v>
@@ -11045,10 +11549,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>145000</v>
@@ -11119,10 +11623,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>85704000</v>
@@ -11193,10 +11697,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-39652000</v>
@@ -11267,7 +11771,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>27234000</v>
@@ -11297,43 +11801,43 @@
         <v>15816738000</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -11341,7 +11845,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>27234000</v>
@@ -11415,7 +11919,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>46872000</v>
@@ -11489,73 +11993,73 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="21" x14ac:dyDescent="0.25">
@@ -11563,73 +12067,73 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -11637,10 +12141,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>99656000</v>
@@ -11667,7 +12171,7 @@
         <v>6520448000</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M76" s="1">
         <v>9737000000</v>
@@ -11711,10 +12215,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>28983000</v>
@@ -11785,25 +12289,25 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1">
         <v>-164212000</v>
@@ -11859,25 +12363,25 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1">
         <v>868646000</v>
@@ -11930,98 +12434,98 @@
     </row>
     <row r="80" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:X80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:X80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.2347037053062477E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.1375900126401947E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.9218870603630026E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.6928822345759014E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.2077562326869803E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.3652217239661189E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.5879648976180529E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.4832351024984469E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.9383509581405267E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.4253367600141798E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.9270668891795589E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.836038854252699E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.6688496635919359E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.1173031935001393E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.9680868819307786E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.8456632111895233E-2</v>
       </c>
     </row>
@@ -12030,10 +12534,10 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>4991000</v>
@@ -12104,25 +12608,25 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1">
         <v>-837247000</v>
@@ -12178,40 +12682,40 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1">
         <v>301000000</v>
@@ -12220,61 +12724,61 @@
         <v>-234000000</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE83" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF83" s="93"/>
+        <v>91</v>
+      </c>
+      <c r="AE83" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF83" s="98"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1">
         <v>70135000</v>
@@ -12324,20 +12828,20 @@
       <c r="X84" s="1">
         <v>707000000</v>
       </c>
-      <c r="AE84" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF84" s="95"/>
+      <c r="AE84" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF84" s="99"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1">
         <v>11517000</v>
@@ -12402,10 +12906,10 @@
       <c r="X85" s="1">
         <v>951000000</v>
       </c>
-      <c r="AE85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF85" s="24">
+      <c r="AE85" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF85" s="75">
         <f>X17</f>
         <v>357000000</v>
       </c>
@@ -12415,10 +12919,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>21635000</v>
@@ -12483,10 +12987,10 @@
       <c r="X86" s="1">
         <v>6549000000</v>
       </c>
-      <c r="AE86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF86" s="24">
+      <c r="AE86" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF86" s="75">
         <f>X56</f>
         <v>2477000000</v>
       </c>
@@ -12496,10 +13000,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>155265000</v>
@@ -12564,10 +13068,10 @@
       <c r="X87" s="10">
         <v>91495000000</v>
       </c>
-      <c r="AE87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF87" s="24">
+      <c r="AE87" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF87" s="75">
         <f>X61</f>
         <v>27202000000</v>
       </c>
@@ -12577,10 +13081,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-37198000</v>
@@ -12645,114 +13149,114 @@
       <c r="X88" s="1">
         <v>-31485000000</v>
       </c>
-      <c r="AE88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF88" s="34">
+      <c r="AE88" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF88" s="77">
         <f>AF85/(AF86+AF87)</f>
         <v>1.2028707166683514E-2</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:X89" si="19">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.463554702075958E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.12060638473491986</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.10002279552104071</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.1365494513371214</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.17942601530969077</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.14480185773327758</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.10820837281004608</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.4243920535845171E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.13703488966952013</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.0700435298773252E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.5231689088191325E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.12299206017551191</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.16604293874335238</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.13221939217751938</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.11312477844735909</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.11893013395877497</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.18373910056351822</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.14548644791389931</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.12206961161910293</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.5638437025737766E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.11131892686928113</v>
+      </c>
+      <c r="AE89" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:X89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.463554702075958E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12060638473491986</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10002279552104071</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1365494513371214</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17942601530969077</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14480185773327758</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10820837281004608</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4243920535845171E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13703488966952013</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.0700435298773252E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.5231689088191325E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12299206017551191</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16604293874335238</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13221939217751938</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11312477844735909</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11893013395877497</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.18373910056351822</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14548644791389931</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12206961161910293</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.5638437025737766E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11131892686928113</v>
-      </c>
-      <c r="AE89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF89" s="24">
+      <c r="AF89" s="75">
         <f>X27</f>
         <v>11356000000</v>
       </c>
@@ -12762,13 +13266,13 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1">
         <v>-39958000</v>
@@ -12830,10 +13334,10 @@
       <c r="X90" s="1">
         <v>-6969000000</v>
       </c>
-      <c r="AE90" s="23" t="s">
+      <c r="AE90" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AF90" s="24">
+      <c r="AF90" s="75">
         <f>X25</f>
         <v>71328000000</v>
       </c>
@@ -12843,10 +13347,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-93061000</v>
@@ -12911,10 +13415,10 @@
       <c r="X91" s="1">
         <v>-81405000000</v>
       </c>
-      <c r="AE91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF91" s="34">
+      <c r="AE91" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF91" s="77">
         <f>AF89/AF90</f>
         <v>0.1592081650964558</v>
       </c>
@@ -12924,10 +13428,10 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>20443000</v>
@@ -12992,10 +13496,10 @@
       <c r="X92" s="1">
         <v>97972000000</v>
       </c>
-      <c r="AE92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF92" s="36">
+      <c r="AE92" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF92" s="77">
         <f>AF88*(1-AF91)</f>
         <v>1.0113638770193244E-2</v>
       </c>
@@ -13005,34 +13509,34 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>99000</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-36906000</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1">
         <v>2361000000</v>
@@ -13073,20 +13577,20 @@
       <c r="X93" s="1">
         <v>1589000000</v>
       </c>
-      <c r="AE93" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF93" s="95"/>
+      <c r="AE93" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF93" s="99"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-109717000</v>
@@ -13151,11 +13655,12 @@
       <c r="X94" s="10">
         <v>-20298000000</v>
       </c>
-      <c r="AE94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF94" s="37">
-        <v>4.095E-2</v>
+      <c r="AE94" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF94" s="78">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13163,34 +13668,34 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1">
         <v>-1783000000</v>
@@ -13231,12 +13736,12 @@
       <c r="X95" s="1">
         <v>-54068000000</v>
       </c>
-      <c r="AE95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF95" s="55" cm="1">
+      <c r="AE95" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF95" s="79" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.0789</v>
+        <v>1.0519000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13244,10 +13749,10 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>2262000</v>
@@ -13265,34 +13770,34 @@
         <v>2384666000</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1">
         <v>800000000</v>
@@ -13301,21 +13806,21 @@
         <v>950000000</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AE96" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF96" s="78">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -13324,49 +13829,49 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1">
         <v>-801000000</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1">
         <v>-1780000000</v>
@@ -13392,12 +13897,12 @@
       <c r="X97" s="1">
         <v>-59296000000</v>
       </c>
-      <c r="AE97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF97" s="36">
+      <c r="AE97" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF97" s="77">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>8.7396644999999995E-2</v>
+        <v>8.6329272000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -13405,88 +13910,88 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE98" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF98" s="95"/>
+        <v>91</v>
+      </c>
+      <c r="X98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF98" s="99"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1">
         <v>-7735000</v>
@@ -13551,10 +14056,10 @@
       <c r="X99" s="1">
         <v>43607000000</v>
       </c>
-      <c r="AE99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF99" s="24">
+      <c r="AE99" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF99" s="75">
         <f>AF86+AF87</f>
         <v>29679000000</v>
       </c>
@@ -13564,10 +14069,10 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10">
         <v>-5473000</v>
@@ -13632,12 +14137,12 @@
       <c r="X100" s="10">
         <v>-69757000000</v>
       </c>
-      <c r="AE100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF100" s="34">
+      <c r="AE100" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF100" s="77">
         <f>AF99/AF103</f>
-        <v>1.8970605437102463E-2</v>
+        <v>1.8846190725050338E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13645,13 +14150,13 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1">
         <v>1662000</v>
@@ -13713,12 +14218,12 @@
       <c r="X101" s="1">
         <v>-506000000</v>
       </c>
-      <c r="AE101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF101" s="49" cm="1">
+      <c r="AE101" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF101" s="80" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1534794000000</v>
+        <v>1545122000000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13726,10 +14231,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>40075000</v>
@@ -13794,12 +14299,12 @@
       <c r="X102" s="10">
         <v>934000000</v>
       </c>
-      <c r="AE102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF102" s="34">
+      <c r="AE102" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF102" s="77">
         <f>AF101/AF103</f>
-        <v>0.98102939456289751</v>
+        <v>0.98115380927494966</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13807,10 +14312,10 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>17677000</v>
@@ -13875,23 +14380,23 @@
       <c r="X103" s="1">
         <v>20945000000</v>
       </c>
-      <c r="AE103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF103" s="38">
+      <c r="AE103" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF103" s="81">
         <f>AF99+AF101</f>
-        <v>1564473000000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+        <v>1574801000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>57752000</v>
@@ -13956,382 +14461,465 @@
       <c r="X104" s="11">
         <v>21879000000</v>
       </c>
-      <c r="AE104" s="94" t="s">
+      <c r="AE104" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF104" s="99"/>
+    </row>
+    <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:V105" si="20">(B22*(1-$AF$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>153555090.28712428</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>159957934.94840735</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>114539206.37056971</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>1195445871.1305518</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>1696229650.740242</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>3158285005.3835793</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="20"/>
+        <v>5044763384.5334225</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="20"/>
+        <v>8189225118.9995508</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="20"/>
+        <v>6007260038.1336918</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="20"/>
+        <v>8915577725.4374161</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="20"/>
+        <v>11315503813.369223</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="20"/>
+        <v>8292498766.2628975</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="20"/>
+        <v>8253702108.5688629</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="20"/>
+        <v>11016729923.732613</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="20"/>
+        <v>19172219156.572453</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="20"/>
+        <v>24960343315.388065</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="20"/>
+        <v>10934481886.496185</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="20"/>
+        <v>17833145300.583221</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="20"/>
+        <v>27903802602.063705</v>
+      </c>
+      <c r="W105" s="1">
+        <f>(W22*(1-$AF$91))+W77+W88+W81</f>
+        <v>52460088492.597565</v>
+      </c>
+      <c r="X105" s="1">
+        <f>(X22*(1-$AF$91))+X77+X88+X81</f>
+        <v>45134542507.851044</v>
+      </c>
+      <c r="Y105" s="29">
+        <f>X105*(1+$AF$106)</f>
+        <v>49322988241.659134</v>
+      </c>
+      <c r="Z105" s="29">
+        <f t="shared" ref="Z105:AC105" si="21">Y105*(1+$AF$106)</f>
+        <v>53900118045.146309</v>
+      </c>
+      <c r="AA105" s="29">
+        <f t="shared" si="21"/>
+        <v>58902001457.140022</v>
+      </c>
+      <c r="AB105" s="29">
+        <f t="shared" si="21"/>
+        <v>64368055237.855789</v>
+      </c>
+      <c r="AC105" s="29">
+        <f t="shared" si="21"/>
+        <v>70341353988.089569</v>
+      </c>
+      <c r="AD105" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE105" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF105" s="83">
+        <f>(AF100*AF92)+(AF102*AF97)</f>
+        <v>8.4892897639920584E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:X106" si="22">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.85186377226490051</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="22"/>
+        <v>2.0096824061030718</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="22"/>
+        <v>1.4636539224282692</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="22"/>
+        <v>3.4853704497580518E-2</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="22"/>
+        <v>1.0102222672571539</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.6291421675458182</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.54817927211653483</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.16967521757377757</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.57539289253858139</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.19942482250381954</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.15322943203956241</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="22"/>
+        <v>1.0264578355897669E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.41096610317946913</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.60307902414799175</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="22"/>
+        <v>-7.4233271375464649E-2</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="22"/>
+        <v>-4.4965909566235807E-2</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.35651716888577445</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.38328167376985656</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.56412949606703555</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.10448874828388943</v>
+      </c>
+      <c r="Y106" s="62">
+        <v>73104000000</v>
+      </c>
+      <c r="Z106" s="62">
+        <v>88384000000</v>
+      </c>
+      <c r="AA106" s="62">
+        <v>103200000000</v>
+      </c>
+      <c r="AB106" s="62">
+        <v>115800000000</v>
+      </c>
+      <c r="AC106" s="62">
+        <v>129100000000</v>
+      </c>
+      <c r="AD106" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE106" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF106" s="85">
+        <f>(SUM(Y4:AC4)/5)</f>
+        <v>9.279911795006042E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
+        <v>118067000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>218644000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>658049000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1621205000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1677710000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>3372570000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>5494396000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>8506310000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>7063000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>11127000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>13346000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>11301000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>11417000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>16109000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>25824000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>23907000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>22832000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>30972000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>42843000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>67012000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>60010000000</v>
+      </c>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="95">
+        <f>AC106*(1+AF107)/(AF108-AF107)</f>
+        <v>2209402203172.0728</v>
+      </c>
+      <c r="AD107" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AF104" s="95"/>
-    </row>
-    <row r="105" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.85186377226490051</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>2.0096824061030718</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>1.4636539224282692</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:X105" si="8">(H106/G106)-1</f>
-        <v>3.4853704497580518E-2</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0102222672571539</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.6291421675458182</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.54817927211653483</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.16967521757377757</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.57539289253858139</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.19942482250381954</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.15322943203956241</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0264578355897669E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.41096610317946913</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.60307902414799175</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.4233271375464649E-2</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.4965909566235807E-2</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.35651716888577445</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.38328167376985656</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.56412949606703555</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.10448874828388943</v>
-      </c>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF105" s="26">
-        <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.5930539581821203E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
-        <v>118067000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>218644000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>658049000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>1621205000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>1677710000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>3372570000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>5494396000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>8506310000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>7063000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>11127000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>13346000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>11301000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>11417000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>16109000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>25824000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>23907000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>22832000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>30972000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>42843000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>67012000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>60010000000</v>
-      </c>
-      <c r="Y106" s="57">
-        <f>X106*(1+$AF$106)</f>
-        <v>65922816076.455643</v>
-      </c>
-      <c r="Z106" s="57">
-        <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
-        <v>72418224953.344421</v>
-      </c>
-      <c r="AA106" s="57">
-        <f t="shared" si="9"/>
-        <v>79553629798.078903</v>
-      </c>
-      <c r="AB106" s="57">
-        <f t="shared" si="9"/>
-        <v>87392089741.596344</v>
-      </c>
-      <c r="AC106" s="57">
-        <f t="shared" si="9"/>
-        <v>96002877163.345474</v>
-      </c>
-      <c r="AD106" s="39" t="s">
+      <c r="AE107" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="AE106" s="40" t="s">
+      <c r="AF107" s="87">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y108" s="95">
+        <f t="shared" ref="Y108:AB108" si="23">Y107+Y106</f>
+        <v>73104000000</v>
+      </c>
+      <c r="Z108" s="95">
+        <f t="shared" si="23"/>
+        <v>88384000000</v>
+      </c>
+      <c r="AA108" s="95">
+        <f t="shared" si="23"/>
+        <v>103200000000</v>
+      </c>
+      <c r="AB108" s="95">
+        <f t="shared" si="23"/>
+        <v>115800000000</v>
+      </c>
+      <c r="AC108" s="95">
+        <f>AC107+AC106</f>
+        <v>2338502203172.0728</v>
+      </c>
+      <c r="AD108" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE108" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="AF106" s="41">
-        <f>(SUM(Y4:AC4)/5)</f>
-        <v>9.8530512855451363E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="39"/>
-      <c r="Z107" s="39"/>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="39"/>
-      <c r="AC107" s="42">
-        <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>1615002095300.4641</v>
-      </c>
-      <c r="AD107" s="43" t="s">
+      <c r="AF108" s="85">
+        <f>AF105</f>
+        <v>8.4892897639920584E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y109" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="AE107" s="44" t="s">
+      <c r="Z109" s="96"/>
+    </row>
+    <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y110" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="AF107" s="45">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y108" s="42">
-        <f t="shared" ref="Y108:AA108" si="10">Y107+Y106</f>
-        <v>65922816076.455643</v>
-      </c>
-      <c r="Z108" s="42">
-        <f t="shared" si="10"/>
-        <v>72418224953.344421</v>
-      </c>
-      <c r="AA108" s="42">
-        <f t="shared" si="10"/>
-        <v>79553629798.078903</v>
-      </c>
-      <c r="AB108" s="42">
-        <f>AB107+AB106</f>
-        <v>87392089741.596344</v>
-      </c>
-      <c r="AC108" s="42">
-        <f>AC107+AC106</f>
-        <v>1711004972463.8096</v>
-      </c>
-      <c r="AD108" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE108" s="46" t="s">
+      <c r="Z110" s="80">
+        <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
+        <v>1862866044029.5593</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y111" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="AF108" s="47">
-        <f>AF105</f>
-        <v>8.5930539581821203E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z109" s="91"/>
-    </row>
-    <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z110" s="49">
-        <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>1380113205795.459</v>
-      </c>
-    </row>
-    <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z111" s="49">
+      <c r="Z111" s="80">
         <f>X40</f>
         <v>113762000000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z112" s="49">
+      <c r="Y112" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z112" s="80">
         <f>AF99</f>
         <v>29679000000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z113" s="49">
+      <c r="Y113" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z113" s="80">
         <f>Z110+Z111-Z112</f>
-        <v>1464196205795.459</v>
+        <v>1946949044029.5593</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z114" s="50">
+      <c r="Y114" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z114" s="89">
         <f>X34*(1+(5*AD16))</f>
         <v>13051072012.005297</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="51" t="s">
+      <c r="Y115" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z115" s="91">
+        <f>Z113/Z114</f>
+        <v>149.1792430720341</v>
+      </c>
+    </row>
+    <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y116" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z116" s="92" cm="1">
+        <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
+        <v>122.21</v>
+      </c>
+    </row>
+    <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y117" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z117" s="93">
+        <f>Z115/Z116-1</f>
+        <v>0.22067951126776952</v>
+      </c>
+    </row>
+    <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y118" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="Z115" s="58">
-        <f>Z113/Z114</f>
-        <v>112.18972697787493</v>
-      </c>
-    </row>
-    <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z116" s="56" cm="1">
-        <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
-        <v>123.15</v>
-      </c>
-    </row>
-    <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z117" s="53">
-        <f>Z115/Z116-1</f>
-        <v>-8.899937492590404E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z118" s="54" t="str">
+      <c r="Z118" s="94" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -14392,9 +14980,10 @@
     <hyperlink ref="X74" r:id="rId46" tooltip="https://www.sec.gov/Archives/edgar/data/1652044/000165204423000016/0001652044-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="Y1" r:id="rId47" display="https://finbox.com/NASDAQGS:GOOG/explorer/revenue_proj" xr:uid="{3EBB5A77-AF41-8C41-9BFA-A2E487CE246D}"/>
     <hyperlink ref="A1" r:id="rId48" tooltip="https://roic.ai/company/GOOG" display="ROIC.AI | GOOG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AD106" r:id="rId49" xr:uid="{3367F425-CD00-6A41-9C66-5C00245EE223}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId49"/>
+  <drawing r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -14416,1315 +15005,1315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47">
         <v>2018</v>
       </c>
-      <c r="C1" s="76">
+      <c r="C1" s="47">
         <v>2019</v>
       </c>
-      <c r="D1" s="76">
+      <c r="D1" s="47">
         <v>2020</v>
       </c>
-      <c r="E1" s="76">
+      <c r="E1" s="47">
         <v>2021</v>
       </c>
-      <c r="F1" s="76">
+      <c r="F1" s="47">
         <v>2022</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="60">
+      <c r="A2" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="31">
         <v>85296</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="31">
         <v>98115</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="31">
         <v>104062</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="31">
         <v>148951</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="31">
         <v>162450</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69">
+      <c r="A3" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40">
         <f t="shared" ref="C3:D3" si="0">C2/B2-1</f>
         <v>0.15028840742824978</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="40">
         <f t="shared" si="0"/>
         <v>6.0612546501554343E-2</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="40">
         <f>E2/D2-1</f>
         <v>0.43136783840402826</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="40">
         <f>F2/E2-1</f>
         <v>9.0627118985438182E-2</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="60">
+      <c r="A4" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="31">
         <v>11155</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="31">
         <v>15149</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="31">
         <v>19772</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="31">
         <v>28845</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="31">
         <v>29243</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69">
+      <c r="A5" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40">
         <f t="shared" ref="C5:D5" si="1">C4/B4-1</f>
         <v>0.35804571940833707</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="40">
         <f t="shared" si="1"/>
         <v>0.30516865799722748</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="40">
         <f>E4/D4-1</f>
         <v>0.45888124620675708</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="40">
         <f>F4/E4-1</f>
         <v>1.3797885248743258E-2</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="60">
+      <c r="A6" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="31">
         <v>20010</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="31">
         <v>21547</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="31">
         <v>23090</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="31">
         <v>31701</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="31">
         <v>32780</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69">
+      <c r="A7" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40">
         <f t="shared" ref="C7:D7" si="2">C6/B6-1</f>
         <v>7.6811594202898625E-2</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="40">
         <f t="shared" si="2"/>
         <v>7.161089710864621E-2</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="40">
         <f>E6/D6-1</f>
         <v>0.37293200519705505</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="40">
         <f>F6/E6-1</f>
         <v>3.4036781174095365E-2</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="75">
+      <c r="A8" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="46">
         <v>116461</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="46">
         <v>134811</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="46">
         <v>146924</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="46">
         <v>209497</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="46">
         <v>224473</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="69">
+      <c r="A9" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="40">
         <f t="shared" ref="C9:D9" si="3">C8/B8-1</f>
         <v>0.15756347618516076</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="40">
         <f t="shared" si="3"/>
         <v>8.9851718331590114E-2</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="40">
         <f>E8/D8-1</f>
         <v>0.42588685306689178</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="40">
         <f>F8/E8-1</f>
         <v>7.14855105323704E-2</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="60">
+      <c r="A10" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="31">
         <v>14063</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="31">
         <v>17014</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="31">
         <v>21711</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="31">
         <v>28032</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="31">
         <v>29055</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="69">
+      <c r="A11" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40">
         <f t="shared" ref="C11:D11" si="4">C10/B10-1</f>
         <v>0.20984142786034266</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="40">
         <f t="shared" si="4"/>
         <v>0.27606676854355228</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="40">
         <f>E10/D10-1</f>
         <v>0.29114273870388274</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="40">
         <f>F10/E10-1</f>
         <v>3.6494006849315141E-2</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="75">
+      <c r="A12" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="46">
         <v>130524</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="46">
         <v>151825</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="46">
         <v>168635</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="46">
         <v>237529</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="46">
         <v>253528</v>
       </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="69">
+      <c r="A13" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="40">
         <f t="shared" ref="C13:D13" si="5">C12/B12-1</f>
         <v>0.16319604057491333</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="40">
         <f t="shared" si="5"/>
         <v>0.11071957846204517</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="40">
         <f>E12/D12-1</f>
         <v>0.40853915260770313</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="40">
         <f>F12/E12-1</f>
         <v>6.7355986005919188E-2</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="60">
+      <c r="A14" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="31">
         <v>5838</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="31">
         <v>8918</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="31">
         <v>13059</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="31">
         <v>19206</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="31">
         <v>26280</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="69">
+      <c r="A15" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="40">
         <f t="shared" ref="C15:D15" si="6">C14/B14-1</f>
         <v>0.52757793764988015</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="40">
         <f t="shared" si="6"/>
         <v>0.46434178066831122</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="40">
         <f>E14/D14-1</f>
         <v>0.47070985527222597</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="40">
         <f>F14/E14-1</f>
         <v>0.36832239925023424</v>
       </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="61">
+      <c r="A16" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="32">
         <v>595</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="32">
         <v>659</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="32">
         <v>657</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="32">
         <v>753</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="31">
         <v>1068</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="89" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="69">
+      <c r="A17" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40">
         <f t="shared" ref="C17:D17" si="7">C16/B16-1</f>
         <v>0.1075630252100841</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="40">
         <f t="shared" si="7"/>
         <v>-3.0349013657056112E-3</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="40">
         <f>E16/D16-1</f>
         <v>0.14611872146118721</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="40">
         <f>F16/E16-1</f>
         <v>0.41832669322709171</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="64">
+      <c r="A18" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="35">
         <v>-138</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="36">
         <v>455</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="36">
         <v>176</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="36">
         <v>149</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="37">
         <v>1960</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="73">
+      <c r="A19" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="44">
         <v>136819</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="44">
         <v>161857</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="44">
         <v>182527</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="44">
         <v>257637</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="44">
         <v>282836</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="69">
+      <c r="A20" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="40">
         <f>C19/B19-1</f>
         <v>0.18300089899794614</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="40">
         <f>D19/C19-1</f>
         <v>0.12770532012826141</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="40">
         <f>E19/D19-1</f>
         <v>0.41150076427049154</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="40">
         <f>F19/E19-1</f>
         <v>9.7808156437157789E-2</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
+      <c r="A22" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="79">
+      <c r="A23" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="50">
         <f>F2/F19</f>
         <v>0.57436111386103605</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="80">
+      <c r="A24" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="51">
         <f>F4/F19</f>
         <v>0.10339207173061421</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="79">
+      <c r="A25" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="50">
         <f>F6/F19</f>
         <v>0.11589755193822568</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="80">
+      <c r="A26" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="51">
         <f>F10/F19</f>
         <v>0.10272737558160913</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="79">
+      <c r="A27" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="50">
         <f>F14/F19</f>
         <v>9.2916036148156522E-2</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="81">
+      <c r="A28" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="52">
         <f>F16/F19</f>
         <v>3.7760398251990555E-3</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Technology/Software/Alphabet.xlsx
+++ b/Technology/Software/Alphabet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8AE587-31AC-1C42-9086-3292E384484A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AB1D6-70F9-D242-96F5-2AA9CA9419FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5295,9 +5295,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Top 10"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="High Quality"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -5308,7 +5309,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.0239999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -5328,6 +5329,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5453,39 +5455,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>129.04</v>
+    <v>133.74</v>
     <v>83.34</v>
-    <v>1.0519000000000001</v>
-    <v>0.68</v>
-    <v>5.5950000000000001E-3</v>
-    <v>7.39</v>
-    <v>6.0469999999999996E-2</v>
+    <v>1.0647</v>
+    <v>-1.74</v>
+    <v>-1.3242E-2</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
-    <v>190711</v>
+    <v>181798</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>123.145</v>
+    <v>132.04</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.99998584453</v>
+    <v>45147.999922638279</v>
     <v>0</v>
-    <v>121.02</v>
-    <v>1545122000000</v>
+    <v>129</v>
+    <v>1659375000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>121.36</v>
-    <v>27.045999999999999</v>
-    <v>121.53</v>
-    <v>122.21</v>
-    <v>129.6</v>
-    <v>12697000000</v>
+    <v>131.66</v>
+    <v>27.450299999999999</v>
+    <v>131.4</v>
+    <v>129.66</v>
+    <v>12609000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>52509551</v>
-    <v>32053989</v>
+    <v>11289</v>
+    <v>33391377</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -5517,8 +5516,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5539,7 +5536,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5556,7 +5552,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5567,16 +5563,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5642,19 +5635,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -5699,9 +5686,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -5709,9 +5693,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -6073,10 +6054,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA92" sqref="AA92"/>
+      <selection pane="bottomRight" activeCell="Z103" sqref="Z103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7530,15 +7511,15 @@
       </c>
       <c r="AE16" s="64">
         <f>AF101/X3</f>
-        <v>5.4629608677820363</v>
+        <v>5.8669158098686163</v>
       </c>
       <c r="AF16" s="64">
         <f>AF101/X28</f>
-        <v>25.764056559727873</v>
+        <v>27.669162275728674</v>
       </c>
       <c r="AG16" s="66">
         <f>AF101/X107</f>
-        <v>25.747742042992833</v>
+        <v>27.651641393101151</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -7795,15 +7776,15 @@
       </c>
       <c r="AE19" s="64">
         <f>AF101/Y3</f>
-        <v>5.1435486018641807</v>
+        <v>5.5238848202396804</v>
       </c>
       <c r="AF19" s="65">
         <f>AF101/Y28</f>
-        <v>22.746131990755053</v>
+        <v>24.428079318111557</v>
       </c>
       <c r="AG19" s="66">
         <f>AF101/Y106</f>
-        <v>21.135943313635369</v>
+        <v>22.698826329612608</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8101,7 +8082,7 @@
       </c>
       <c r="AG22" s="68">
         <f>X107/AF101</f>
-        <v>3.8838357100604355E-2</v>
+        <v>3.6164218455743878E-2</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -13660,7 +13641,7 @@
       </c>
       <c r="AF94" s="78">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.0239999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13741,7 +13722,7 @@
       </c>
       <c r="AF95" s="79" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.0519000000000001</v>
+        <v>1.0647</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -13902,7 +13883,7 @@
       </c>
       <c r="AF97" s="77">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>8.6329272000000012E-2</v>
+        <v>8.6831272000000015E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -14142,7 +14123,7 @@
       </c>
       <c r="AF100" s="77">
         <f>AF99/AF103</f>
-        <v>1.8846190725050338E-2</v>
+        <v>1.7571374272225753E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -14223,7 +14204,7 @@
       </c>
       <c r="AF101" s="80" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1545122000000</v>
+        <v>1659375000000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -14304,7 +14285,7 @@
       </c>
       <c r="AF102" s="77">
         <f>AF101/AF103</f>
-        <v>0.98115380927494966</v>
+        <v>0.98242862572777423</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -14385,7 +14366,7 @@
       </c>
       <c r="AF103" s="81">
         <f>AF99+AF101</f>
-        <v>1574801000000</v>
+        <v>1689054000000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14590,7 +14571,7 @@
       </c>
       <c r="AF105" s="83">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.4892897639920584E-2</v>
+        <v>8.5483237753239738E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -14791,7 +14772,7 @@
       <c r="AB107" s="27"/>
       <c r="AC107" s="95">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>2209402203172.0728</v>
+        <v>2187837571458.5811</v>
       </c>
       <c r="AD107" s="28" t="s">
         <v>145</v>
@@ -14822,7 +14803,7 @@
       </c>
       <c r="AC108" s="95">
         <f>AC107+AC106</f>
-        <v>2338502203172.0728</v>
+        <v>2316937571458.5811</v>
       </c>
       <c r="AD108" s="28" t="s">
         <v>142</v>
@@ -14832,7 +14813,7 @@
       </c>
       <c r="AF108" s="85">
         <f>AF105</f>
-        <v>8.4892897639920584E-2</v>
+        <v>8.5483237753239738E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -14847,7 +14828,7 @@
       </c>
       <c r="Z110" s="80">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>1862866044029.5593</v>
+        <v>1843898195257.4851</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -14874,7 +14855,7 @@
       </c>
       <c r="Z113" s="80">
         <f>Z110+Z111-Z112</f>
-        <v>1946949044029.5593</v>
+        <v>1927981195257.4851</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -14892,7 +14873,7 @@
       </c>
       <c r="Z115" s="91">
         <f>Z113/Z114</f>
-        <v>149.1792430720341</v>
+        <v>147.72588745843959</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -14901,7 +14882,7 @@
       </c>
       <c r="Z116" s="92" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
-        <v>122.21</v>
+        <v>129.66</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -14910,7 +14891,7 @@
       </c>
       <c r="Z117" s="93">
         <f>Z115/Z116-1</f>
-        <v>0.22067951126776952</v>
+        <v>0.13933277385808718</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Alphabet.xlsx
+++ b/Technology/Software/Alphabet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ECDFFE-428C-A54A-8CA7-B68A085D9E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6320B0E-0601-464E-94EC-E8295F21DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1716,13 +1716,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1739,7 +1736,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.6689999999999995E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1751,9 +1748,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1881,11 +1875,11 @@
     <v>Powered by Refinitiv</v>
     <v>141.22</v>
     <v>83.34</v>
-    <v>1.0521</v>
-    <v>-0.11</v>
-    <v>-8.9959999999999997E-4</v>
-    <v>-0.17</v>
-    <v>-1.392E-3</v>
+    <v>1.0485</v>
+    <v>1.61</v>
+    <v>1.2627999999999999E-2</v>
+    <v>-0.09</v>
+    <v>-6.9709999999999998E-4</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
     <v>182381</v>
@@ -1893,25 +1887,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>123.31</v>
+    <v>129.52500000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.999900219533</v>
+    <v>45233.999693298436</v>
     <v>0</v>
-    <v>120.20569999999999</v>
-    <v>1536122000000</v>
+    <v>127.86</v>
+    <v>1623086000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>122.88</v>
-    <v>23.454699999999999</v>
-    <v>122.28</v>
-    <v>122.17</v>
-    <v>122</v>
+    <v>128.02000000000001</v>
+    <v>24.4541</v>
+    <v>127.49</v>
+    <v>129.1</v>
+    <v>129.01</v>
     <v>12516000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>44566506</v>
-    <v>29171762</v>
+    <v>26393109</v>
+    <v>30753192</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -14030,8 +14024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D7744-2F7F-9C41-AD2F-981B74E38672}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14080,7 +14074,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>1536122000000</v>
+        <v>1623086000000</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -14108,7 +14102,7 @@
       </c>
       <c r="I3" s="43">
         <f>J20*(1+I7)/(I6-I7)</f>
-        <v>2276947423422.0186</v>
+        <v>2275667332482.5117</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -14153,7 +14147,7 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F20,G20,H20,I20,(J20+I3))</f>
-        <v>1924990619214.1062</v>
+        <v>1923864329325.0896</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>211</v>
@@ -14203,14 +14197,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>2014208619214.1062</v>
+        <v>2013082329325.0896</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>122.17</v>
+        <v>129.1</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>219</v>
@@ -14228,7 +14222,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>5.0364655737704922</v>
+        <v>5.3215934426229508</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>221</v>
@@ -14256,14 +14250,14 @@
       </c>
       <c r="I6" s="61">
         <f>N25</f>
-        <v>8.4421661918156171E-2</v>
+        <v>8.4455087335811085E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="62">
         <f>I5/G4</f>
-        <v>178.45090028417283</v>
+        <v>178.35111546409078</v>
       </c>
       <c r="L6" s="63" t="s">
         <v>225</v>
@@ -14281,14 +14275,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66">
         <f>O20/F17</f>
-        <v>21.171828268210323</v>
+        <v>22.370422438150367</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="68">
         <f>F20/A3</f>
-        <v>5.0842315909804037E-2</v>
+        <v>4.8118214315199567E-2</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>228</v>
@@ -14315,7 +14309,7 @@
       </c>
       <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>0.46067692792152592</v>
+        <v>0.38149585952045539</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>231</v>
@@ -14581,7 +14575,7 @@
       </c>
       <c r="O14" s="95">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.6689999999999995E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -14614,7 +14608,7 @@
       </c>
       <c r="O15" s="99" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0521</v>
+        <v>1.0485</v>
       </c>
       <c r="P15" s="46"/>
     </row>
@@ -14691,7 +14685,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.5852155000000013E-2</v>
+        <v>8.5809535000000006E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -14835,7 +14829,7 @@
       </c>
       <c r="O20" s="108" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>1536122000000</v>
+        <v>1623086000000</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -14884,7 +14878,7 @@
       </c>
       <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>1565236000000</v>
+        <v>1652200000000</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -14936,7 +14930,7 @@
       </c>
       <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>1.860038997314143E-2</v>
+        <v>1.7621353347052414E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -14969,7 +14963,7 @@
       </c>
       <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.9813996100268586</v>
+        <v>0.98237864665294761</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -15015,7 +15009,7 @@
       <c r="M25" s="85"/>
       <c r="N25" s="134">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.4421661918156171E-2</v>
+        <v>8.4455087335811085E-2</v>
       </c>
       <c r="O25" s="135"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Alphabet.xlsx
+++ b/Technology/Software/Alphabet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6320B0E-0601-464E-94EC-E8295F21DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49358326-2C9C-8046-AD5B-EA26BECF6844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1736,7 +1736,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1874,12 +1874,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>141.22</v>
-    <v>83.34</v>
-    <v>1.0485</v>
-    <v>1.61</v>
-    <v>1.2627999999999999E-2</v>
-    <v>-0.09</v>
-    <v>-6.9709999999999998E-4</v>
+    <v>84.86</v>
+    <v>1.0503</v>
+    <v>0.87</v>
+    <v>6.6429999999999996E-3</v>
+    <v>-0.14000000000000001</v>
+    <v>-1.062E-3</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
     <v>182381</v>
@@ -1887,25 +1887,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>129.52500000000001</v>
+    <v>132.21</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.999693298436</v>
+    <v>45239.041467580471</v>
     <v>0</v>
-    <v>127.86</v>
-    <v>1623086000000</v>
+    <v>130.78</v>
+    <v>1647407000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>128.02000000000001</v>
-    <v>24.4541</v>
-    <v>127.49</v>
-    <v>129.1</v>
-    <v>129.01</v>
+    <v>130.97</v>
+    <v>25.121600000000001</v>
+    <v>130.97</v>
+    <v>131.84</v>
+    <v>131.69999999999999</v>
     <v>12516000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>26393109</v>
-    <v>30753192</v>
+    <v>26425849</v>
+    <v>30715828</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -14025,7 +14025,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14074,7 +14074,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>1623086000000</v>
+        <v>1647407000000</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="I3" s="43">
         <f>J20*(1+I7)/(I6-I7)</f>
-        <v>2275667332482.5117</v>
+        <v>2270546972466.4614</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F20,G20,H20,I20,(J20+I3))</f>
-        <v>1923864329325.0896</v>
+        <v>1919359225465.6355</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>211</v>
@@ -14197,14 +14197,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>2013082329325.0896</v>
+        <v>2008577225465.6355</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>129.1</v>
+        <v>131.84</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>219</v>
@@ -14222,7 +14222,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>5.3215934426229508</v>
+        <v>5.401334426229508</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>221</v>
@@ -14250,14 +14250,14 @@
       </c>
       <c r="I6" s="61">
         <f>N25</f>
-        <v>8.4455087335811085E-2</v>
+        <v>8.4589165800443941E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="62">
         <f>I5/G4</f>
-        <v>178.35111546409078</v>
+        <v>177.95198111826173</v>
       </c>
       <c r="L6" s="63" t="s">
         <v>225</v>
@@ -14275,14 +14275,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66">
         <f>O20/F17</f>
-        <v>22.370422438150367</v>
+        <v>22.705630211563641</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="68">
         <f>F20/A3</f>
-        <v>4.8118214315199567E-2</v>
+        <v>4.7407835465067223E-2</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>228</v>
@@ -14309,7 +14309,7 @@
       </c>
       <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>0.38149585952045539</v>
+        <v>0.34975713833632982</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>231</v>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="O14" s="95">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="O15" s="99" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0485</v>
+        <v>1.0503</v>
       </c>
       <c r="P15" s="46"/>
     </row>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.5809535000000006E-2</v>
+        <v>8.5925987000000009E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="O20" s="108" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>1623086000000</v>
+        <v>1647407000000</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>1652200000000</v>
+        <v>1676521000000</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -14930,7 +14930,7 @@
       </c>
       <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>1.7621353347052414E-2</v>
+        <v>1.7365723423685118E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.98237864665294761</v>
+        <v>0.98263427657631486</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -15009,7 +15009,7 @@
       <c r="M25" s="85"/>
       <c r="N25" s="134">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.4455087335811085E-2</v>
+        <v>8.4589165800443941E-2</v>
       </c>
       <c r="O25" s="135"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Alphabet.xlsx
+++ b/Technology/Software/Alphabet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49358326-2C9C-8046-AD5B-EA26BECF6844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604654C-0D3D-A14E-B056-F7AE55E92860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="257">
   <si>
     <t>2010 Y</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -854,7 +857,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +996,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1149,94 +1163,6 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1329,12 +1255,229 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1399,288 +1542,310 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1718,6 +1883,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
@@ -1736,7 +1902,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1748,6 +1914,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1875,11 +2042,11 @@
     <v>Powered by Refinitiv</v>
     <v>141.22</v>
     <v>84.86</v>
-    <v>1.0503</v>
-    <v>0.87</v>
-    <v>6.6429999999999996E-3</v>
-    <v>-0.14000000000000001</v>
-    <v>-1.062E-3</v>
+    <v>1.0351999999999999</v>
+    <v>-0.67</v>
+    <v>-5.0549999999999996E-3</v>
+    <v>7.0000000000000007E-2</v>
+    <v>5.3089999999999995E-4</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
     <v>182381</v>
@@ -1887,25 +2054,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>132.21</v>
+    <v>132.11000000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.041467580471</v>
+    <v>45262.041589189059</v>
     <v>0</v>
-    <v>130.78</v>
-    <v>1647407000000</v>
+    <v>130.66499999999999</v>
+    <v>1666703000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>130.97</v>
-    <v>25.121600000000001</v>
-    <v>130.97</v>
-    <v>131.84</v>
-    <v>131.69999999999999</v>
+    <v>131.86000000000001</v>
+    <v>25.4208</v>
+    <v>132.53</v>
+    <v>131.86000000000001</v>
+    <v>131.93</v>
     <v>12516000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>26425849</v>
-    <v>30715828</v>
+    <v>31442263</v>
+    <v>27687876</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2070,9 +2237,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14022,332 +14189,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D7744-2F7F-9C41-AD2F-981B74E38672}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="126" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="e" vm="1">
+    <row r="1" spans="1:18" s="134" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="133" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-    </row>
-    <row r="2" spans="1:16" s="126" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+    </row>
+    <row r="2" spans="1:18" s="134" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>1647407000000</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>1666703000000</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="112">
         <f>Financials!O8*0.01</f>
         <v>0.5544</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="112">
         <f>SUM(C11:E11)/3</f>
         <v>0.2123380802786369</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="62">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-1.9635879687797536E-2</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="116">
         <f>J20*(1+I7)/(I6-I7)</f>
-        <v>2270546972466.4614</v>
-      </c>
-      <c r="J3" s="39" t="s">
+        <v>2287795114709.2993</v>
+      </c>
+      <c r="J3" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="127" t="s">
+      <c r="K3" s="120">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="128"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="O3" s="136"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>89218000000</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="113">
         <f>Financials!O17*0.01</f>
         <v>0.25750000000000001</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="113">
         <f>AVERAGE(C18:E18)</f>
         <v>0.28314782547863127</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="68">
         <f>A5*(1+(5*G3))</f>
         <v>11287186649.13763</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="117">
         <f>NPV(I6,F20,G20,H20,I20,(J20+I3))</f>
-        <v>1919359225465.6355</v>
-      </c>
-      <c r="J4" s="50" t="s">
+        <v>1934535185216.6252</v>
+      </c>
+      <c r="J4" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="54">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="129" t="s">
+      <c r="K4" s="118" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>-5.0549999999999996E-3</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="M4" s="40"/>
+      <c r="N4" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="130"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" cm="1">
+      <c r="O4" s="138"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="65" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>12516000000</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="113">
         <f>Financials!O34*0.01</f>
         <v>0.21050000000000002</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="113">
         <f>AVERAGE(C21:E21)</f>
         <v>0.32259996593210877</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="68">
         <f>Financials!O56</f>
         <v>118332000000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="117">
         <f>I4+G5-G6</f>
-        <v>2008577225465.6355</v>
-      </c>
-      <c r="J5" s="50" t="s">
+        <v>2023753185216.6252</v>
+      </c>
+      <c r="J5" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="56" cm="1">
+      <c r="K5" s="121" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>131.84</v>
-      </c>
-      <c r="L5" s="39" t="s">
+        <v>131.86000000000001</v>
+      </c>
+      <c r="L5" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="57" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="94">
         <f>Financials!O21</f>
         <v>314000000</v>
       </c>
-      <c r="P5" s="46"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="72">
         <f>O20/F10</f>
-        <v>5.401334426229508</v>
-      </c>
-      <c r="B6" s="48" t="s">
+        <v>5.4645999999999999</v>
+      </c>
+      <c r="B6" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="113">
         <f>Financials!O190</f>
         <v>0.2464483608698205</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="113">
         <f>Financials!O33/Financials!O126</f>
         <v>0.22816789635435969</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="68">
         <f>Financials!O96+Financials!O105</f>
         <v>29114000000</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="119">
         <f>N25</f>
-        <v>8.4589165800443941E-2</v>
-      </c>
-      <c r="J6" s="52" t="s">
+        <v>8.4139911231601694E-2</v>
+      </c>
+      <c r="J6" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="122">
         <f>I5/G4</f>
-        <v>177.95198111826173</v>
-      </c>
-      <c r="L6" s="63" t="s">
+        <v>179.29651100181329</v>
+      </c>
+      <c r="L6" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="64" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="65">
+      <c r="O6" s="94">
         <f>Financials!O96</f>
         <v>2663000000</v>
       </c>
-      <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
         <f>O20/F17</f>
-        <v>22.705630211563641</v>
-      </c>
-      <c r="B7" s="67" t="s">
+        <v>22.971580180552685</v>
+      </c>
+      <c r="B7" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="115">
         <f>F20/A3</f>
-        <v>4.7407835465067223E-2</v>
-      </c>
-      <c r="D7" s="69" t="s">
+        <v>4.6858978474269258E-2</v>
+      </c>
+      <c r="D7" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="114">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.18872592867630927</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="76">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.10898364534084996</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="131">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="123">
         <f>K6/K5-1</f>
-        <v>0.34975713833632982</v>
-      </c>
-      <c r="L7" s="76" t="s">
+        <v>0.35974905962242731</v>
+      </c>
+      <c r="L7" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="64" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="94">
         <f>Financials!O105</f>
         <v>26451000000</v>
       </c>
-      <c r="P7" s="46"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="78" t="s">
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="79">
+      <c r="O8" s="96">
         <f>O5/(O6+O7)</f>
         <v>1.0785189256028027E-2</v>
       </c>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="80"/>
       <c r="B9" s="81">
         <v>2019</v>
@@ -14358,1508 +14542,1617 @@
       <c r="D9" s="81">
         <v>2021</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="82">
         <v>2022</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="83">
         <v>2023</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="84">
         <v>2024</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="84">
         <v>2025</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="84">
         <v>2026</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="85">
         <v>2027</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="64" t="s">
+      <c r="K9" s="125"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="94">
         <f>Financials!O25</f>
         <v>12535000000</v>
       </c>
-      <c r="P9" s="46"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="44">
         <v>161857000000</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="44">
         <v>182527000000</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="44">
         <v>257637000000</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="58">
         <v>282836000000</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="44">
         <v>305000000000</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="44">
         <v>340000000000</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="44">
         <v>377000000000</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="44">
         <v>414600000000</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="58">
         <v>442000000000</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="L10" s="90"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="64" t="s">
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="94">
         <f>Financials!O24</f>
         <v>73488000000</v>
       </c>
-      <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="117">
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="56"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.12770532012826141</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="46">
         <f t="shared" si="0"/>
         <v>0.41150076427049154</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="46">
         <f t="shared" si="0"/>
         <v>9.7808156437157789E-2</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="57">
         <f t="shared" si="0"/>
         <v>7.8363433226321888E-2</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="46">
         <f t="shared" si="0"/>
         <v>0.11475409836065564</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="46">
         <f t="shared" si="0"/>
         <v>0.10882352941176476</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="46">
         <f t="shared" si="0"/>
         <v>9.9734748010610108E-2</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="89">
         <f t="shared" si="0"/>
         <v>6.6087795465509025E-2</v>
       </c>
-      <c r="K11" s="94">
+      <c r="K11" s="130">
         <f>SUM(F11:J11)/5</f>
         <v>9.3552720894972283E-2</v>
       </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="64" t="s">
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="95">
+      <c r="O11" s="97">
         <f>O9/O10</f>
         <v>0.1705720661876769</v>
       </c>
-      <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="122">
+      <c r="B12" s="105">
         <v>98115000000</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="105">
         <v>104062000000</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="105">
         <v>148951000000</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="106">
         <v>162450000000</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="97" t="s">
+      <c r="F12" s="45"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="98">
+      <c r="O12" s="97">
         <f>O8*(1-O11)</f>
         <v>8.9455372404021929E-3</v>
       </c>
-      <c r="P12" s="46"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91" t="s">
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="107">
         <v>15149000000</v>
       </c>
-      <c r="C13" s="123">
+      <c r="C13" s="107">
         <v>19772000000</v>
       </c>
-      <c r="D13" s="123">
+      <c r="D13" s="107">
         <v>28845000000</v>
       </c>
-      <c r="E13" s="123">
+      <c r="E13" s="108">
         <v>29243000000</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="129" t="s">
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="137" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="130"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="91" t="s">
+      <c r="O13" s="138"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="107">
         <v>21547000000</v>
       </c>
-      <c r="C14" s="123">
+      <c r="C14" s="107">
         <v>23090000000</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="107">
         <v>31701000000</v>
       </c>
-      <c r="E14" s="123">
+      <c r="E14" s="108">
         <v>32780000000</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="64" t="s">
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="O14" s="95">
+      <c r="O14" s="97">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="B15" s="123">
+      <c r="B15" s="107">
         <v>8918000000</v>
       </c>
-      <c r="C15" s="123">
+      <c r="C15" s="107">
         <v>13059000000</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="107">
         <v>19206000000</v>
       </c>
-      <c r="E15" s="123">
+      <c r="E15" s="108">
         <v>26280000000</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="64" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="O15" s="99" cm="1">
+      <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0503</v>
-      </c>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="101" t="s">
+        <v>1.0351999999999999</v>
+      </c>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="123">
+      <c r="B16" s="107">
         <v>17014000000</v>
       </c>
-      <c r="C16" s="123">
+      <c r="C16" s="110">
         <v>21711000000</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="110">
         <v>28032000000</v>
       </c>
-      <c r="E16" s="123">
+      <c r="E16" s="111">
         <v>29055000000</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="64" t="s">
+      <c r="F16" s="45"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="O16" s="95">
+      <c r="O16" s="97">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="115" t="s">
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="100">
+      <c r="B17" s="44">
         <v>34343000000</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="44">
         <v>40269000000</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="44">
         <v>76033000000</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="44">
         <v>59972000000</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="128">
         <v>72555000000</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="44">
         <v>84000000000</v>
       </c>
-      <c r="H17" s="87">
+      <c r="H17" s="44">
         <v>96700000000</v>
       </c>
-      <c r="I17" s="87">
+      <c r="I17" s="44">
         <v>109300000000</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="58">
         <v>121000000000</v>
       </c>
-      <c r="K17" s="102" t="s">
+      <c r="K17" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="103" t="s">
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="O17" s="104">
+      <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.5925987000000009E-2</v>
-      </c>
-      <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92">
+        <v>8.5453408000000008E-2</v>
+      </c>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="126"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46">
         <f t="shared" ref="C18:J18" si="1">(C17/B17)-1</f>
         <v>0.17255335876306677</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="46">
         <f t="shared" si="1"/>
         <v>0.88812734361419454</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="46">
         <f t="shared" si="1"/>
         <v>-0.21123722594136751</v>
       </c>
-      <c r="F18" s="93">
+      <c r="F18" s="127">
         <f t="shared" si="1"/>
         <v>0.2098145801373974</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G18" s="46">
         <f t="shared" si="1"/>
         <v>0.15774240231548475</v>
       </c>
-      <c r="H18" s="92">
+      <c r="H18" s="46">
         <f t="shared" si="1"/>
         <v>0.1511904761904761</v>
       </c>
-      <c r="I18" s="92">
+      <c r="I18" s="46">
         <f t="shared" si="1"/>
         <v>0.13029989658738361</v>
       </c>
-      <c r="J18" s="92">
+      <c r="J18" s="89">
         <f t="shared" si="1"/>
         <v>0.10704483074107962</v>
       </c>
-      <c r="K18" s="94">
+      <c r="K18" s="89">
         <f>SUM(F18:J18)/5</f>
         <v>0.15121843719436429</v>
       </c>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="129" t="s">
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="130"/>
-      <c r="P18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105" t="s">
+      <c r="O18" s="138"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="51">
         <f>B17/B10</f>
         <v>0.21218112284300339</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="51">
         <f t="shared" ref="C19:J19" si="2">C17/C10</f>
         <v>0.22061941520980458</v>
       </c>
-      <c r="D19" s="106">
+      <c r="D19" s="51">
         <f t="shared" si="2"/>
         <v>0.29511677282377918</v>
       </c>
-      <c r="E19" s="106">
+      <c r="E19" s="92">
         <f t="shared" si="2"/>
         <v>0.21203807153261961</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="51">
         <f t="shared" si="2"/>
         <v>0.23788524590163934</v>
       </c>
-      <c r="G19" s="106">
+      <c r="G19" s="51">
         <f t="shared" si="2"/>
         <v>0.24705882352941178</v>
       </c>
-      <c r="H19" s="106">
+      <c r="H19" s="51">
         <f t="shared" si="2"/>
         <v>0.25649867374005303</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="51">
         <f t="shared" si="2"/>
         <v>0.26362759286058851</v>
       </c>
-      <c r="J19" s="106">
+      <c r="J19" s="51">
         <f t="shared" si="2"/>
         <v>0.27375565610859731</v>
       </c>
-      <c r="K19" s="107"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="64" t="s">
+      <c r="K19" s="52"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="108">
+      <c r="O19" s="101">
         <f>O6+O7</f>
         <v>29114000000</v>
       </c>
-      <c r="P19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="87">
+      <c r="B20" s="44">
         <v>28543670032</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="44">
         <v>42956063413</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="44">
         <v>67301940022</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="44">
         <v>60310162685</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="128">
         <v>78100000000</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="44">
         <v>91300000000</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="44">
         <v>105500000000</v>
       </c>
-      <c r="I20" s="87">
+      <c r="I20" s="44">
         <v>119300000000</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="58">
         <v>132000000000</v>
       </c>
-      <c r="K20" s="102" t="s">
+      <c r="K20" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="64" t="s">
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="108" cm="1">
+      <c r="O20" s="101" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>1647407000000</v>
-      </c>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92">
+        <v>1666703000000</v>
+      </c>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="129"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46">
         <f t="shared" ref="C21:J21" si="3">(C20/B20)-1</f>
         <v>0.50492432699938106</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="46">
         <f t="shared" si="3"/>
         <v>0.56676228393945638</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="46">
         <f t="shared" si="3"/>
         <v>-0.10388671314251108</v>
       </c>
-      <c r="F21" s="93">
+      <c r="F21" s="127">
         <f t="shared" si="3"/>
         <v>0.294972464390725</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="46">
         <f t="shared" si="3"/>
         <v>0.16901408450704225</v>
       </c>
-      <c r="H21" s="92">
+      <c r="H21" s="46">
         <f t="shared" si="3"/>
         <v>0.15553121577217954</v>
       </c>
-      <c r="I21" s="92">
+      <c r="I21" s="46">
         <f t="shared" si="3"/>
         <v>0.13080568720379149</v>
       </c>
-      <c r="J21" s="92">
+      <c r="J21" s="89">
         <f t="shared" si="3"/>
         <v>0.10645431684828166</v>
       </c>
-      <c r="K21" s="94">
+      <c r="K21" s="89">
         <f>SUM(F21:J21)/5</f>
         <v>0.17135555374440398</v>
       </c>
-      <c r="M21" s="85"/>
-      <c r="N21" s="64" t="s">
+      <c r="L21" s="86"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="O21" s="108">
+      <c r="O21" s="101">
         <f>O19+O20</f>
-        <v>1676521000000</v>
-      </c>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105" t="s">
+        <v>1695817000000</v>
+      </c>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="106">
+      <c r="B22" s="51">
         <f>B20/B10</f>
         <v>0.17635116202573878</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="51">
         <f t="shared" ref="C22:J22" si="4">C20/C10</f>
         <v>0.23534087238052454</v>
       </c>
-      <c r="D22" s="106">
+      <c r="D22" s="51">
         <f t="shared" si="4"/>
         <v>0.26122777404642966</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="92">
         <f t="shared" si="4"/>
         <v>0.21323368554568725</v>
       </c>
-      <c r="F22" s="106">
+      <c r="F22" s="51">
         <f t="shared" si="4"/>
         <v>0.25606557377049183</v>
       </c>
-      <c r="G22" s="106">
+      <c r="G22" s="51">
         <f t="shared" si="4"/>
         <v>0.26852941176470591</v>
       </c>
-      <c r="H22" s="106">
+      <c r="H22" s="51">
         <f t="shared" si="4"/>
         <v>0.27984084880636606</v>
       </c>
-      <c r="I22" s="106">
+      <c r="I22" s="51">
         <f t="shared" si="4"/>
         <v>0.28774722624216109</v>
       </c>
-      <c r="J22" s="106">
+      <c r="J22" s="51">
         <f t="shared" si="4"/>
         <v>0.29864253393665158</v>
       </c>
-      <c r="K22" s="107"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="78" t="s">
+      <c r="K22" s="52"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="109">
+      <c r="O22" s="102">
         <f>(O19/O21)</f>
-        <v>1.7365723423685118E-2</v>
-      </c>
-      <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86" t="s">
+        <v>1.7168126041901925E-2</v>
+      </c>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="110">
+      <c r="B23" s="53">
         <v>0.1239415111609915</v>
       </c>
-      <c r="C23" s="110">
+      <c r="C23" s="53">
         <v>0.1240112949028542</v>
       </c>
-      <c r="D23" s="110">
+      <c r="D23" s="53">
         <v>0.21081848373388565</v>
       </c>
-      <c r="E23" s="111">
+      <c r="E23" s="54">
         <v>0.19638552530762046</v>
       </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="103" t="s">
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="114">
+      <c r="O23" s="103">
         <f>O20/O21</f>
-        <v>0.98263427657631486</v>
-      </c>
-      <c r="P23" s="46"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="131" t="s">
+        <v>0.98283187395809812</v>
+      </c>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="139" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="132"/>
-      <c r="P24" s="46"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="124" t="str" cm="1">
+      <c r="O24" s="140"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="132" t="str" cm="1">
         <f t="array" ref="A25">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="133" cm="1">
+      <c r="B25" s="132"/>
+      <c r="C25" s="141" cm="1">
         <f t="array" ref="C25">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2015</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="134">
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="142">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.4589165800443941E-2</v>
-      </c>
-      <c r="O25" s="135"/>
-      <c r="P25" s="46"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="124" t="str" cm="1">
+        <v>8.4139911231601694E-2</v>
+      </c>
+      <c r="O25" s="143"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="132" t="str" cm="1">
         <f t="array" ref="A26">_FV(A1,"Description")</f>
         <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="124"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="124"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="124"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="124"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="124"/>
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="132"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="132"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="132"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="132"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="132"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="132"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="132"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="132"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="132"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="132"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
+      <c r="O105" s="40"/>
+      <c r="P105" s="40"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
+      <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
+      <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Technology/Software/Alphabet.xlsx
+++ b/Technology/Software/Alphabet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604654C-0D3D-A14E-B056-F7AE55E92860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E219DF43-6836-F647-947E-AA9B5CF7F96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1883,8 +1883,10 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1902,7 +1904,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1915,6 +1917,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2042,11 +2046,11 @@
     <v>Powered by Refinitiv</v>
     <v>141.22</v>
     <v>84.86</v>
-    <v>1.0351999999999999</v>
-    <v>-0.67</v>
-    <v>-5.0549999999999996E-3</v>
-    <v>7.0000000000000007E-2</v>
-    <v>5.3089999999999995E-4</v>
+    <v>1.0523</v>
+    <v>-1.94</v>
+    <v>-1.4168E-2</v>
+    <v>-0.28000000000000003</v>
+    <v>-2.0739999999999999E-3</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
     <v>182381</v>
@@ -2054,25 +2058,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>132.11000000000001</v>
+    <v>136.4</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041589189059</v>
+    <v>45269.041621550779</v>
     <v>0</v>
-    <v>130.66499999999999</v>
-    <v>1666703000000</v>
+    <v>134.02500000000001</v>
+    <v>1722518000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>131.86000000000001</v>
-    <v>25.4208</v>
-    <v>132.53</v>
-    <v>131.86000000000001</v>
-    <v>131.93</v>
+    <v>134.19999999999999</v>
+    <v>26.264800000000001</v>
+    <v>136.93</v>
+    <v>134.99</v>
+    <v>134.71</v>
     <v>12516000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>31442263</v>
-    <v>27687876</v>
+    <v>32260112</v>
+    <v>27243784</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2237,9 +2241,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14241,7 +14245,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>1666703000000</v>
+        <v>1722518000000</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>201</v>
@@ -14269,7 +14273,7 @@
       </c>
       <c r="I3" s="116">
         <f>J20*(1+I7)/(I6-I7)</f>
-        <v>2287795114709.2993</v>
+        <v>2256758960770.9692</v>
       </c>
       <c r="J3" s="63" t="s">
         <v>205</v>
@@ -14321,14 +14325,14 @@
       </c>
       <c r="I4" s="117">
         <f>NPV(I6,F20,G20,H20,I20,(J20+I3))</f>
-        <v>1934535185216.6252</v>
+        <v>1907228384540.8904</v>
       </c>
       <c r="J4" s="67" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="118" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-5.0549999999999996E-3</v>
+        <v>-1.4168E-2</v>
       </c>
       <c r="L4" s="69" t="s">
         <v>256</v>
@@ -14373,14 +14377,14 @@
       </c>
       <c r="I5" s="117">
         <f>I4+G5-G6</f>
-        <v>2023753185216.6252</v>
+        <v>1996446384540.8904</v>
       </c>
       <c r="J5" s="67" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="121" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>131.86000000000001</v>
+        <v>134.99</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>219</v>
@@ -14400,7 +14404,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72">
         <f>O20/F10</f>
-        <v>5.4645999999999999</v>
+        <v>5.6475999999999997</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>221</v>
@@ -14428,14 +14432,14 @@
       </c>
       <c r="I6" s="119">
         <f>N25</f>
-        <v>8.4139911231601694E-2</v>
+        <v>8.4953234861102705E-2</v>
       </c>
       <c r="J6" s="67" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="122">
         <f>I5/G4</f>
-        <v>179.29651100181329</v>
+        <v>176.87723669329273</v>
       </c>
       <c r="L6" s="73" t="s">
         <v>225</v>
@@ -14455,14 +14459,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
         <f>O20/F17</f>
-        <v>22.971580180552685</v>
+        <v>23.740858658948383</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="115">
         <f>F20/A3</f>
-        <v>4.6858978474269258E-2</v>
+        <v>4.5340600214337383E-2</v>
       </c>
       <c r="D7" s="75" t="s">
         <v>228</v>
@@ -14489,7 +14493,7 @@
       </c>
       <c r="K7" s="123">
         <f>K6/K5-1</f>
-        <v>0.35974905962242731</v>
+        <v>0.31029881245494262</v>
       </c>
       <c r="L7" s="79" t="s">
         <v>231</v>
@@ -14769,7 +14773,7 @@
       </c>
       <c r="O14" s="97">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -14804,7 +14808,7 @@
       </c>
       <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0351999999999999</v>
+        <v>1.0523</v>
       </c>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
@@ -14885,7 +14889,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.5453408000000008E-2</v>
+        <v>8.6237916999999997E-2</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -15035,7 +15039,7 @@
       </c>
       <c r="O20" s="101" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>1666703000000</v>
+        <v>1722518000000</v>
       </c>
       <c r="P20" s="40"/>
       <c r="Q20" s="40"/>
@@ -15087,7 +15091,7 @@
       </c>
       <c r="O21" s="101">
         <f>O19+O20</f>
-        <v>1695817000000</v>
+        <v>1751632000000</v>
       </c>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
@@ -15141,7 +15145,7 @@
       </c>
       <c r="O22" s="102">
         <f>(O19/O21)</f>
-        <v>1.7168126041901925E-2</v>
+        <v>1.6621071092558254E-2</v>
       </c>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
@@ -15176,7 +15180,7 @@
       </c>
       <c r="O23" s="103">
         <f>O20/O21</f>
-        <v>0.98283187395809812</v>
+        <v>0.98337892890744172</v>
       </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
@@ -15226,7 +15230,7 @@
       <c r="M25" s="42"/>
       <c r="N25" s="142">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.4139911231601694E-2</v>
+        <v>8.4953234861102705E-2</v>
       </c>
       <c r="O25" s="143"/>
       <c r="P25" s="40"/>
